--- a/raw_data/20200818_saline/20200818_Sensor0_Test_8.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor0_Test_8.xlsx
@@ -1,598 +1,1014 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751E8DFB-D14C-4DE8-8D03-D93A91505B08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>6302.844942</v>
+        <v>6302.8449419999997</v>
       </c>
       <c r="B2" s="1">
-        <v>1.750790</v>
+        <v>1.7507900000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>903.940000</v>
+        <v>903.94</v>
       </c>
       <c r="D2" s="1">
-        <v>-195.441000</v>
+        <v>-195.441</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>6312.911720</v>
+        <v>6312.9117200000001</v>
       </c>
       <c r="G2" s="1">
         <v>1.753587</v>
       </c>
       <c r="H2" s="1">
-        <v>920.478000</v>
+        <v>920.47799999999995</v>
       </c>
       <c r="I2" s="1">
-        <v>-164.616000</v>
+        <v>-164.61600000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>6322.996405</v>
+        <v>6322.9964049999999</v>
       </c>
       <c r="L2" s="1">
-        <v>1.756388</v>
+        <v>1.7563880000000001</v>
       </c>
       <c r="M2" s="1">
-        <v>942.315000</v>
+        <v>942.31500000000005</v>
       </c>
       <c r="N2" s="1">
-        <v>-118.346000</v>
+        <v>-118.346</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>6333.442119</v>
+        <v>6333.4421190000003</v>
       </c>
       <c r="Q2" s="1">
-        <v>1.759289</v>
+        <v>1.7592890000000001</v>
       </c>
       <c r="R2" s="1">
-        <v>948.748000</v>
+        <v>948.74800000000005</v>
       </c>
       <c r="S2" s="1">
-        <v>-103.059000</v>
+        <v>-103.059</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>6344.007896</v>
+        <v>6344.0078960000001</v>
       </c>
       <c r="V2" s="1">
         <v>1.762224</v>
       </c>
       <c r="W2" s="1">
-        <v>955.081000</v>
+        <v>955.08100000000002</v>
       </c>
       <c r="X2" s="1">
-        <v>-89.281700</v>
+        <v>-89.281700000000001</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>6354.163482</v>
+        <v>6354.1634819999999</v>
       </c>
       <c r="AA2" s="1">
         <v>1.765045</v>
       </c>
       <c r="AB2" s="1">
-        <v>962.206000</v>
+        <v>962.20600000000002</v>
       </c>
       <c r="AC2" s="1">
-        <v>-79.915600</v>
+        <v>-79.915599999999998</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>6364.721820</v>
+        <v>6364.7218199999998</v>
       </c>
       <c r="AF2" s="1">
         <v>1.767978</v>
       </c>
       <c r="AG2" s="1">
-        <v>967.033000</v>
+        <v>967.03300000000002</v>
       </c>
       <c r="AH2" s="1">
-        <v>-79.403600</v>
+        <v>-79.403599999999997</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>6375.152687</v>
+        <v>6375.1526869999998</v>
       </c>
       <c r="AK2" s="1">
-        <v>1.770876</v>
+        <v>1.7708759999999999</v>
       </c>
       <c r="AL2" s="1">
-        <v>974.930000</v>
+        <v>974.93</v>
       </c>
       <c r="AM2" s="1">
-        <v>-87.021100</v>
+        <v>-87.021100000000004</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
         <v>6385.730896</v>
@@ -601,375 +1017,375 @@
         <v>1.773814</v>
       </c>
       <c r="AQ2" s="1">
-        <v>984.006000</v>
+        <v>984.00599999999997</v>
       </c>
       <c r="AR2" s="1">
-        <v>-101.799000</v>
+        <v>-101.79900000000001</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>6396.352194</v>
+        <v>6396.3521940000001</v>
       </c>
       <c r="AU2" s="1">
         <v>1.776764</v>
       </c>
       <c r="AV2" s="1">
-        <v>995.277000</v>
+        <v>995.27700000000004</v>
       </c>
       <c r="AW2" s="1">
-        <v>-123.091000</v>
+        <v>-123.09099999999999</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>6407.412521</v>
+        <v>6407.4125210000002</v>
       </c>
       <c r="AZ2" s="1">
-        <v>1.779837</v>
+        <v>1.7798369999999999</v>
       </c>
       <c r="BA2" s="1">
-        <v>1004.810000</v>
+        <v>1004.81</v>
       </c>
       <c r="BB2" s="1">
-        <v>-141.670000</v>
+        <v>-141.66999999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>6418.368151</v>
+        <v>6418.3681509999997</v>
       </c>
       <c r="BE2" s="1">
-        <v>1.782880</v>
+        <v>1.78288</v>
       </c>
       <c r="BF2" s="1">
-        <v>1049.440000</v>
+        <v>1049.44</v>
       </c>
       <c r="BG2" s="1">
-        <v>-225.809000</v>
+        <v>-225.809</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>6429.434360</v>
+        <v>6429.4343600000002</v>
       </c>
       <c r="BJ2" s="1">
         <v>1.785954</v>
       </c>
       <c r="BK2" s="1">
-        <v>1127.860000</v>
+        <v>1127.8599999999999</v>
       </c>
       <c r="BL2" s="1">
-        <v>-361.326000</v>
+        <v>-361.32600000000002</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>6439.766522</v>
+        <v>6439.7665219999999</v>
       </c>
       <c r="BO2" s="1">
         <v>1.788824</v>
       </c>
       <c r="BP2" s="1">
-        <v>1258.190000</v>
+        <v>1258.19</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-571.160000</v>
+        <v>-571.16</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>6450.858060</v>
+        <v>6450.8580599999996</v>
       </c>
       <c r="BT2" s="1">
-        <v>1.791905</v>
+        <v>1.7919050000000001</v>
       </c>
       <c r="BU2" s="1">
-        <v>1404.740000</v>
+        <v>1404.74</v>
       </c>
       <c r="BV2" s="1">
-        <v>-795.423000</v>
+        <v>-795.423</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>6461.516124</v>
+        <v>6461.5161239999998</v>
       </c>
       <c r="BY2" s="1">
-        <v>1.794866</v>
+        <v>1.7948660000000001</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1566.630000</v>
+        <v>1566.63</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1029.100000</v>
+        <v>-1029.0999999999999</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>6472.527774</v>
+        <v>6472.5277740000001</v>
       </c>
       <c r="CD2" s="1">
-        <v>1.797924</v>
+        <v>1.7979240000000001</v>
       </c>
       <c r="CE2" s="1">
-        <v>1974.500000</v>
+        <v>1974.5</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1574.240000</v>
+        <v>-1574.24</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
         <v>6303.210497</v>
       </c>
       <c r="B3" s="1">
-        <v>1.750892</v>
+        <v>1.7508919999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>903.992000</v>
+        <v>903.99199999999996</v>
       </c>
       <c r="D3" s="1">
-        <v>-195.242000</v>
+        <v>-195.24199999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>6313.326402</v>
+        <v>6313.3264019999997</v>
       </c>
       <c r="G3" s="1">
-        <v>1.753702</v>
+        <v>1.7537020000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>920.038000</v>
+        <v>920.03800000000001</v>
       </c>
       <c r="I3" s="1">
-        <v>-165.859000</v>
+        <v>-165.85900000000001</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>6323.409043</v>
+        <v>6323.4090429999997</v>
       </c>
       <c r="L3" s="1">
-        <v>1.756503</v>
+        <v>1.7565029999999999</v>
       </c>
       <c r="M3" s="1">
-        <v>942.355000</v>
+        <v>942.35500000000002</v>
       </c>
       <c r="N3" s="1">
-        <v>-118.356000</v>
+        <v>-118.35599999999999</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>6333.863254</v>
+        <v>6333.8632539999999</v>
       </c>
       <c r="Q3" s="1">
         <v>1.759406</v>
       </c>
       <c r="R3" s="1">
-        <v>948.736000</v>
+        <v>948.73599999999999</v>
       </c>
       <c r="S3" s="1">
-        <v>-103.089000</v>
+        <v>-103.089</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>6344.413623</v>
+        <v>6344.4136230000004</v>
       </c>
       <c r="V3" s="1">
         <v>1.762337</v>
       </c>
       <c r="W3" s="1">
-        <v>955.124000</v>
+        <v>955.12400000000002</v>
       </c>
       <c r="X3" s="1">
-        <v>-89.345100</v>
+        <v>-89.345100000000002</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>6354.535498</v>
+        <v>6354.5354980000002</v>
       </c>
       <c r="AA3" s="1">
-        <v>1.765149</v>
+        <v>1.7651490000000001</v>
       </c>
       <c r="AB3" s="1">
-        <v>962.138000</v>
+        <v>962.13800000000003</v>
       </c>
       <c r="AC3" s="1">
-        <v>-79.858400</v>
+        <v>-79.858400000000003</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>6365.086380</v>
+        <v>6365.0863799999997</v>
       </c>
       <c r="AF3" s="1">
-        <v>1.768080</v>
+        <v>1.7680800000000001</v>
       </c>
       <c r="AG3" s="1">
-        <v>967.037000</v>
+        <v>967.03700000000003</v>
       </c>
       <c r="AH3" s="1">
-        <v>-79.392900</v>
+        <v>-79.392899999999997</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>6375.527664</v>
+        <v>6375.5276640000002</v>
       </c>
       <c r="AK3" s="1">
-        <v>1.770980</v>
+        <v>1.77098</v>
       </c>
       <c r="AL3" s="1">
-        <v>974.905000</v>
+        <v>974.90499999999997</v>
       </c>
       <c r="AM3" s="1">
-        <v>-87.010900</v>
+        <v>-87.010900000000007</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>6386.140560</v>
+        <v>6386.1405599999998</v>
       </c>
       <c r="AP3" s="1">
-        <v>1.773928</v>
+        <v>1.7739279999999999</v>
       </c>
       <c r="AQ3" s="1">
-        <v>984.039000</v>
+        <v>984.03899999999999</v>
       </c>
       <c r="AR3" s="1">
-        <v>-101.774000</v>
+        <v>-101.774</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>6396.777764</v>
+        <v>6396.7777640000004</v>
       </c>
       <c r="AU3" s="1">
         <v>1.776883</v>
       </c>
       <c r="AV3" s="1">
-        <v>995.296000</v>
+        <v>995.29600000000005</v>
       </c>
       <c r="AW3" s="1">
-        <v>-123.109000</v>
+        <v>-123.10899999999999</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>6407.801349</v>
+        <v>6407.8013490000003</v>
       </c>
       <c r="AZ3" s="1">
-        <v>1.779945</v>
+        <v>1.7799450000000001</v>
       </c>
       <c r="BA3" s="1">
-        <v>1004.800000</v>
+        <v>1004.8</v>
       </c>
       <c r="BB3" s="1">
-        <v>-141.647000</v>
+        <v>-141.64699999999999</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>6418.766902</v>
+        <v>6418.7669020000003</v>
       </c>
       <c r="BE3" s="1">
         <v>1.782991</v>
       </c>
       <c r="BF3" s="1">
-        <v>1049.440000</v>
+        <v>1049.44</v>
       </c>
       <c r="BG3" s="1">
-        <v>-225.834000</v>
+        <v>-225.834</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>6429.834669</v>
+        <v>6429.8346689999998</v>
       </c>
       <c r="BJ3" s="1">
         <v>1.786065</v>
       </c>
       <c r="BK3" s="1">
-        <v>1127.840000</v>
+        <v>1127.8399999999999</v>
       </c>
       <c r="BL3" s="1">
-        <v>-361.345000</v>
+        <v>-361.34500000000003</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>6440.506585</v>
+        <v>6440.5065850000001</v>
       </c>
       <c r="BO3" s="1">
-        <v>1.789030</v>
+        <v>1.7890299999999999</v>
       </c>
       <c r="BP3" s="1">
-        <v>1258.150000</v>
+        <v>1258.1500000000001</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-571.218000</v>
+        <v>-571.21799999999996</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>6450.996970</v>
+        <v>6450.9969700000001</v>
       </c>
       <c r="BT3" s="1">
         <v>1.791944</v>
       </c>
       <c r="BU3" s="1">
-        <v>1404.720000</v>
+        <v>1404.72</v>
       </c>
       <c r="BV3" s="1">
-        <v>-795.250000</v>
+        <v>-795.25</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>6461.699131</v>
+        <v>6461.6991310000003</v>
       </c>
       <c r="BY3" s="1">
         <v>1.794916</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1566.460000</v>
+        <v>1566.46</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1029.020000</v>
+        <v>-1029.02</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
         <v>6473.102637</v>
@@ -978,135 +1394,135 @@
         <v>1.798084</v>
       </c>
       <c r="CE3" s="1">
-        <v>1975.400000</v>
+        <v>1975.4</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1574.870000</v>
+        <v>-1574.87</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>6303.625117</v>
+        <v>6303.6251169999996</v>
       </c>
       <c r="B4" s="1">
         <v>1.751007</v>
       </c>
       <c r="C4" s="1">
-        <v>903.873000</v>
+        <v>903.87300000000005</v>
       </c>
       <c r="D4" s="1">
-        <v>-195.468000</v>
+        <v>-195.46799999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>6313.592752</v>
+        <v>6313.5927519999996</v>
       </c>
       <c r="G4" s="1">
         <v>1.753776</v>
       </c>
       <c r="H4" s="1">
-        <v>920.347000</v>
+        <v>920.34699999999998</v>
       </c>
       <c r="I4" s="1">
-        <v>-165.725000</v>
+        <v>-165.72499999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>6323.726521</v>
+        <v>6323.7265209999996</v>
       </c>
       <c r="L4" s="1">
         <v>1.756591</v>
       </c>
       <c r="M4" s="1">
-        <v>942.306000</v>
+        <v>942.30600000000004</v>
       </c>
       <c r="N4" s="1">
-        <v>-118.359000</v>
+        <v>-118.35899999999999</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>6334.210917</v>
+        <v>6334.2109170000003</v>
       </c>
       <c r="Q4" s="1">
         <v>1.759503</v>
       </c>
       <c r="R4" s="1">
-        <v>948.744000</v>
+        <v>948.74400000000003</v>
       </c>
       <c r="S4" s="1">
-        <v>-103.059000</v>
+        <v>-103.059</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>6344.760328</v>
+        <v>6344.7603280000003</v>
       </c>
       <c r="V4" s="1">
-        <v>1.762433</v>
+        <v>1.7624329999999999</v>
       </c>
       <c r="W4" s="1">
-        <v>954.916000</v>
+        <v>954.91600000000005</v>
       </c>
       <c r="X4" s="1">
-        <v>-89.396000</v>
+        <v>-89.396000000000001</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>6354.882682</v>
+        <v>6354.8826820000004</v>
       </c>
       <c r="AA4" s="1">
         <v>1.765245</v>
       </c>
       <c r="AB4" s="1">
-        <v>962.104000</v>
+        <v>962.10400000000004</v>
       </c>
       <c r="AC4" s="1">
-        <v>-79.856800</v>
+        <v>-79.856800000000007</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>6365.770859</v>
+        <v>6365.7708590000002</v>
       </c>
       <c r="AF4" s="1">
-        <v>1.768270</v>
+        <v>1.76827</v>
       </c>
       <c r="AG4" s="1">
-        <v>967.035000</v>
+        <v>967.03499999999997</v>
       </c>
       <c r="AH4" s="1">
-        <v>-79.397700</v>
+        <v>-79.3977</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>6376.235454</v>
+        <v>6376.2354539999997</v>
       </c>
       <c r="AK4" s="1">
         <v>1.771177</v>
       </c>
       <c r="AL4" s="1">
-        <v>974.914000</v>
+        <v>974.91399999999999</v>
       </c>
       <c r="AM4" s="1">
-        <v>-87.028000</v>
+        <v>-87.028000000000006</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
         <v>6386.479824</v>
@@ -1115,58 +1531,58 @@
         <v>1.774022</v>
       </c>
       <c r="AQ4" s="1">
-        <v>984.018000</v>
+        <v>984.01800000000003</v>
       </c>
       <c r="AR4" s="1">
-        <v>-101.795000</v>
+        <v>-101.795</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>6397.133430</v>
+        <v>6397.1334299999999</v>
       </c>
       <c r="AU4" s="1">
-        <v>1.776982</v>
+        <v>1.7769820000000001</v>
       </c>
       <c r="AV4" s="1">
-        <v>995.293000</v>
+        <v>995.29300000000001</v>
       </c>
       <c r="AW4" s="1">
-        <v>-123.101000</v>
+        <v>-123.101</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>6408.161476</v>
+        <v>6408.1614760000002</v>
       </c>
       <c r="AZ4" s="1">
-        <v>1.780045</v>
+        <v>1.7800450000000001</v>
       </c>
       <c r="BA4" s="1">
-        <v>1004.800000</v>
+        <v>1004.8</v>
       </c>
       <c r="BB4" s="1">
-        <v>-141.669000</v>
+        <v>-141.66900000000001</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>6419.425588</v>
+        <v>6419.4255880000001</v>
       </c>
       <c r="BE4" s="1">
         <v>1.783174</v>
       </c>
       <c r="BF4" s="1">
-        <v>1049.460000</v>
+        <v>1049.46</v>
       </c>
       <c r="BG4" s="1">
-        <v>-225.844000</v>
+        <v>-225.84399999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
         <v>6430.512694</v>
@@ -1175,619 +1591,619 @@
         <v>1.786254</v>
       </c>
       <c r="BK4" s="1">
-        <v>1127.840000</v>
+        <v>1127.8399999999999</v>
       </c>
       <c r="BL4" s="1">
-        <v>-361.333000</v>
+        <v>-361.33300000000003</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>6440.617657</v>
+        <v>6440.6176569999998</v>
       </c>
       <c r="BO4" s="1">
-        <v>1.789060</v>
+        <v>1.7890600000000001</v>
       </c>
       <c r="BP4" s="1">
-        <v>1258.150000</v>
+        <v>1258.1500000000001</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-571.197000</v>
+        <v>-571.197</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>6451.408123</v>
+        <v>6451.4081230000002</v>
       </c>
       <c r="BT4" s="1">
-        <v>1.792058</v>
+        <v>1.7920579999999999</v>
       </c>
       <c r="BU4" s="1">
-        <v>1404.700000</v>
+        <v>1404.7</v>
       </c>
       <c r="BV4" s="1">
-        <v>-795.099000</v>
+        <v>-795.09900000000005</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>6462.147500</v>
+        <v>6462.1475</v>
       </c>
       <c r="BY4" s="1">
-        <v>1.795041</v>
+        <v>1.7950410000000001</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1566.540000</v>
+        <v>1566.54</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1029.020000</v>
+        <v>-1029.02</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>6473.623436</v>
+        <v>6473.6234359999999</v>
       </c>
       <c r="CD4" s="1">
-        <v>1.798229</v>
+        <v>1.7982290000000001</v>
       </c>
       <c r="CE4" s="1">
-        <v>1974.620000</v>
+        <v>1974.62</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1575.100000</v>
+        <v>-1575.1</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>6303.914781</v>
+        <v>6303.9147810000004</v>
       </c>
       <c r="B5" s="1">
-        <v>1.751087</v>
+        <v>1.7510870000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>903.708000</v>
+        <v>903.70799999999997</v>
       </c>
       <c r="D5" s="1">
-        <v>-195.304000</v>
+        <v>-195.304</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>6313.933472</v>
+        <v>6313.9334719999997</v>
       </c>
       <c r="G5" s="1">
-        <v>1.753870</v>
+        <v>1.75387</v>
       </c>
       <c r="H5" s="1">
-        <v>920.249000</v>
+        <v>920.24900000000002</v>
       </c>
       <c r="I5" s="1">
-        <v>-165.360000</v>
+        <v>-165.36</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>6324.070707</v>
+        <v>6324.0707069999999</v>
       </c>
       <c r="L5" s="1">
         <v>1.756686</v>
       </c>
       <c r="M5" s="1">
-        <v>942.334000</v>
+        <v>942.33399999999995</v>
       </c>
       <c r="N5" s="1">
-        <v>-118.499000</v>
+        <v>-118.499</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
         <v>6334.555636</v>
       </c>
       <c r="Q5" s="1">
-        <v>1.759599</v>
+        <v>1.7595989999999999</v>
       </c>
       <c r="R5" s="1">
-        <v>948.767000</v>
+        <v>948.76700000000005</v>
       </c>
       <c r="S5" s="1">
-        <v>-103.042000</v>
+        <v>-103.042</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
         <v>6345.101079</v>
       </c>
       <c r="V5" s="1">
-        <v>1.762528</v>
+        <v>1.7625280000000001</v>
       </c>
       <c r="W5" s="1">
-        <v>955.017000</v>
+        <v>955.01700000000005</v>
       </c>
       <c r="X5" s="1">
-        <v>-89.241100</v>
+        <v>-89.241100000000003</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>6355.580553</v>
+        <v>6355.5805529999998</v>
       </c>
       <c r="AA5" s="1">
         <v>1.765439</v>
       </c>
       <c r="AB5" s="1">
-        <v>962.195000</v>
+        <v>962.19500000000005</v>
       </c>
       <c r="AC5" s="1">
-        <v>-79.806500</v>
+        <v>-79.8065</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>6366.115082</v>
+        <v>6366.1150820000003</v>
       </c>
       <c r="AF5" s="1">
         <v>1.768365</v>
       </c>
       <c r="AG5" s="1">
-        <v>967.054000</v>
+        <v>967.05399999999997</v>
       </c>
       <c r="AH5" s="1">
-        <v>-79.392700</v>
+        <v>-79.392700000000005</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>6376.584638</v>
+        <v>6376.5846380000003</v>
       </c>
       <c r="AK5" s="1">
         <v>1.771274</v>
       </c>
       <c r="AL5" s="1">
-        <v>974.919000</v>
+        <v>974.91899999999998</v>
       </c>
       <c r="AM5" s="1">
-        <v>-87.014300</v>
+        <v>-87.014300000000006</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>6386.837935</v>
+        <v>6386.8379349999996</v>
       </c>
       <c r="AP5" s="1">
         <v>1.774122</v>
       </c>
       <c r="AQ5" s="1">
-        <v>984.045000</v>
+        <v>984.04499999999996</v>
       </c>
       <c r="AR5" s="1">
-        <v>-101.795000</v>
+        <v>-101.795</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>6397.497458</v>
+        <v>6397.4974579999998</v>
       </c>
       <c r="AU5" s="1">
         <v>1.777083</v>
       </c>
       <c r="AV5" s="1">
-        <v>995.303000</v>
+        <v>995.303</v>
       </c>
       <c r="AW5" s="1">
-        <v>-123.092000</v>
+        <v>-123.092</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>6408.820658</v>
+        <v>6408.8206579999996</v>
       </c>
       <c r="AZ5" s="1">
-        <v>1.780228</v>
+        <v>1.7802279999999999</v>
       </c>
       <c r="BA5" s="1">
-        <v>1004.780000</v>
+        <v>1004.78</v>
       </c>
       <c r="BB5" s="1">
-        <v>-141.659000</v>
+        <v>-141.65899999999999</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>6419.881413</v>
+        <v>6419.8814130000001</v>
       </c>
       <c r="BE5" s="1">
-        <v>1.783300</v>
+        <v>1.7833000000000001</v>
       </c>
       <c r="BF5" s="1">
-        <v>1049.440000</v>
+        <v>1049.44</v>
       </c>
       <c r="BG5" s="1">
-        <v>-225.819000</v>
+        <v>-225.81899999999999</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>6430.621285</v>
+        <v>6430.6212850000002</v>
       </c>
       <c r="BJ5" s="1">
         <v>1.786284</v>
       </c>
       <c r="BK5" s="1">
-        <v>1127.830000</v>
+        <v>1127.83</v>
       </c>
       <c r="BL5" s="1">
-        <v>-361.323000</v>
+        <v>-361.32299999999998</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>6441.040281</v>
+        <v>6441.0402809999996</v>
       </c>
       <c r="BO5" s="1">
-        <v>1.789178</v>
+        <v>1.7891779999999999</v>
       </c>
       <c r="BP5" s="1">
-        <v>1258.190000</v>
+        <v>1258.19</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-571.213000</v>
+        <v>-571.21299999999997</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>6451.834185</v>
+        <v>6451.8341849999997</v>
       </c>
       <c r="BT5" s="1">
         <v>1.792176</v>
       </c>
       <c r="BU5" s="1">
-        <v>1404.870000</v>
+        <v>1404.87</v>
       </c>
       <c r="BV5" s="1">
-        <v>-795.107000</v>
+        <v>-795.10699999999997</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>6462.567611</v>
+        <v>6462.5676110000004</v>
       </c>
       <c r="BY5" s="1">
         <v>1.795158</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1566.470000</v>
+        <v>1566.47</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1029.010000</v>
+        <v>-1029.01</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>6474.175982</v>
+        <v>6474.1759819999997</v>
       </c>
       <c r="CD5" s="1">
-        <v>1.798382</v>
+        <v>1.7983819999999999</v>
       </c>
       <c r="CE5" s="1">
-        <v>1974.270000</v>
+        <v>1974.27</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1574.260000</v>
+        <v>-1574.26</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>6304.260524</v>
+        <v>6304.2605240000003</v>
       </c>
       <c r="B6" s="1">
-        <v>1.751183</v>
+        <v>1.7511829999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>903.856000</v>
+        <v>903.85599999999999</v>
       </c>
       <c r="D6" s="1">
-        <v>-195.479000</v>
+        <v>-195.47900000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>6314.286651</v>
+        <v>6314.2866510000003</v>
       </c>
       <c r="G6" s="1">
-        <v>1.753969</v>
+        <v>1.7539689999999999</v>
       </c>
       <c r="H6" s="1">
-        <v>920.794000</v>
+        <v>920.79399999999998</v>
       </c>
       <c r="I6" s="1">
-        <v>-165.241000</v>
+        <v>-165.24100000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>6324.414965</v>
+        <v>6324.4149649999999</v>
       </c>
       <c r="L6" s="1">
-        <v>1.756782</v>
+        <v>1.7567820000000001</v>
       </c>
       <c r="M6" s="1">
-        <v>942.254000</v>
+        <v>942.25400000000002</v>
       </c>
       <c r="N6" s="1">
-        <v>-118.259000</v>
+        <v>-118.259</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>6335.257011</v>
+        <v>6335.2570109999997</v>
       </c>
       <c r="Q6" s="1">
-        <v>1.759794</v>
+        <v>1.7597940000000001</v>
       </c>
       <c r="R6" s="1">
-        <v>948.789000</v>
+        <v>948.78899999999999</v>
       </c>
       <c r="S6" s="1">
-        <v>-103.090000</v>
+        <v>-103.09</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>6345.787543</v>
+        <v>6345.7875430000004</v>
       </c>
       <c r="V6" s="1">
-        <v>1.762719</v>
+        <v>1.7627189999999999</v>
       </c>
       <c r="W6" s="1">
-        <v>955.109000</v>
+        <v>955.10900000000004</v>
       </c>
       <c r="X6" s="1">
-        <v>-89.299300</v>
+        <v>-89.299300000000002</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>6355.929240</v>
+        <v>6355.9292400000004</v>
       </c>
       <c r="AA6" s="1">
         <v>1.765536</v>
       </c>
       <c r="AB6" s="1">
-        <v>962.007000</v>
+        <v>962.00699999999995</v>
       </c>
       <c r="AC6" s="1">
-        <v>-79.955800</v>
+        <v>-79.955799999999996</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>6366.465258</v>
+        <v>6366.4652580000002</v>
       </c>
       <c r="AF6" s="1">
-        <v>1.768463</v>
+        <v>1.7684629999999999</v>
       </c>
       <c r="AG6" s="1">
-        <v>967.028000</v>
+        <v>967.02800000000002</v>
       </c>
       <c r="AH6" s="1">
-        <v>-79.394100</v>
+        <v>-79.394099999999995</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>6376.929356</v>
+        <v>6376.9293559999996</v>
       </c>
       <c r="AK6" s="1">
         <v>1.771369</v>
       </c>
       <c r="AL6" s="1">
-        <v>974.916000</v>
+        <v>974.91600000000005</v>
       </c>
       <c r="AM6" s="1">
-        <v>-87.031800</v>
+        <v>-87.031800000000004</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>6387.508032</v>
+        <v>6387.5080319999997</v>
       </c>
       <c r="AP6" s="1">
         <v>1.774308</v>
       </c>
       <c r="AQ6" s="1">
-        <v>984.029000</v>
+        <v>984.029</v>
       </c>
       <c r="AR6" s="1">
-        <v>-101.815000</v>
+        <v>-101.815</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>6398.231536</v>
+        <v>6398.2315360000002</v>
       </c>
       <c r="AU6" s="1">
-        <v>1.777287</v>
+        <v>1.7772870000000001</v>
       </c>
       <c r="AV6" s="1">
-        <v>995.285000</v>
+        <v>995.28499999999997</v>
       </c>
       <c r="AW6" s="1">
-        <v>-123.114000</v>
+        <v>-123.114</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>6409.267522</v>
+        <v>6409.2675220000001</v>
       </c>
       <c r="AZ6" s="1">
-        <v>1.780352</v>
+        <v>1.7803519999999999</v>
       </c>
       <c r="BA6" s="1">
-        <v>1004.790000</v>
+        <v>1004.79</v>
       </c>
       <c r="BB6" s="1">
-        <v>-141.692000</v>
+        <v>-141.69200000000001</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>6420.240052</v>
+        <v>6420.2400520000001</v>
       </c>
       <c r="BE6" s="1">
-        <v>1.783400</v>
+        <v>1.7834000000000001</v>
       </c>
       <c r="BF6" s="1">
-        <v>1049.430000</v>
+        <v>1049.43</v>
       </c>
       <c r="BG6" s="1">
-        <v>-225.814000</v>
+        <v>-225.81399999999999</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>6430.998741</v>
+        <v>6430.9987410000003</v>
       </c>
       <c r="BJ6" s="1">
         <v>1.786389</v>
       </c>
       <c r="BK6" s="1">
-        <v>1127.820000</v>
+        <v>1127.82</v>
       </c>
       <c r="BL6" s="1">
-        <v>-361.341000</v>
+        <v>-361.34100000000001</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>6441.442009</v>
+        <v>6441.4420090000003</v>
       </c>
       <c r="BO6" s="1">
-        <v>1.789289</v>
+        <v>1.7892889999999999</v>
       </c>
       <c r="BP6" s="1">
-        <v>1258.120000</v>
+        <v>1258.1199999999999</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-571.160000</v>
+        <v>-571.16</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
         <v>6452.248345</v>
       </c>
       <c r="BT6" s="1">
-        <v>1.792291</v>
+        <v>1.7922910000000001</v>
       </c>
       <c r="BU6" s="1">
-        <v>1404.990000</v>
+        <v>1404.99</v>
       </c>
       <c r="BV6" s="1">
-        <v>-794.930000</v>
+        <v>-794.93</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>6462.991691</v>
+        <v>6462.9916910000002</v>
       </c>
       <c r="BY6" s="1">
         <v>1.795275</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1566.500000</v>
+        <v>1566.5</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1029.100000</v>
+        <v>-1029.0999999999999</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>6474.704748</v>
+        <v>6474.7047480000001</v>
       </c>
       <c r="CD6" s="1">
         <v>1.798529</v>
       </c>
       <c r="CE6" s="1">
-        <v>1974.970000</v>
+        <v>1974.97</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1575.310000</v>
+        <v>-1575.31</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>6304.601281</v>
+        <v>6304.6012810000002</v>
       </c>
       <c r="B7" s="1">
-        <v>1.751278</v>
+        <v>1.7512779999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>903.926000</v>
+        <v>903.92600000000004</v>
       </c>
       <c r="D7" s="1">
-        <v>-195.440000</v>
+        <v>-195.44</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>6314.976094</v>
+        <v>6314.9760939999996</v>
       </c>
       <c r="G7" s="1">
-        <v>1.754160</v>
+        <v>1.7541599999999999</v>
       </c>
       <c r="H7" s="1">
-        <v>920.457000</v>
+        <v>920.45699999999999</v>
       </c>
       <c r="I7" s="1">
-        <v>-165.790000</v>
+        <v>-165.79</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
         <v>6325.110353</v>
@@ -1796,240 +2212,240 @@
         <v>1.756975</v>
       </c>
       <c r="M7" s="1">
-        <v>942.286000</v>
+        <v>942.28599999999994</v>
       </c>
       <c r="N7" s="1">
-        <v>-118.270000</v>
+        <v>-118.27</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>6335.607651</v>
+        <v>6335.6076510000003</v>
       </c>
       <c r="Q7" s="1">
-        <v>1.759891</v>
+        <v>1.7598910000000001</v>
       </c>
       <c r="R7" s="1">
-        <v>948.750000</v>
+        <v>948.75</v>
       </c>
       <c r="S7" s="1">
-        <v>-103.082000</v>
+        <v>-103.08199999999999</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>6346.158550</v>
+        <v>6346.1585500000001</v>
       </c>
       <c r="V7" s="1">
-        <v>1.762822</v>
+        <v>1.7628219999999999</v>
       </c>
       <c r="W7" s="1">
-        <v>955.111000</v>
+        <v>955.11099999999999</v>
       </c>
       <c r="X7" s="1">
-        <v>-89.373800</v>
+        <v>-89.373800000000003</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>6356.275449</v>
+        <v>6356.2754489999998</v>
       </c>
       <c r="AA7" s="1">
-        <v>1.765632</v>
+        <v>1.7656320000000001</v>
       </c>
       <c r="AB7" s="1">
-        <v>962.122000</v>
+        <v>962.12199999999996</v>
       </c>
       <c r="AC7" s="1">
-        <v>-79.837400</v>
+        <v>-79.837400000000002</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>6367.108105</v>
+        <v>6367.1081050000003</v>
       </c>
       <c r="AF7" s="1">
-        <v>1.768641</v>
+        <v>1.7686409999999999</v>
       </c>
       <c r="AG7" s="1">
-        <v>967.070000</v>
+        <v>967.07</v>
       </c>
       <c r="AH7" s="1">
-        <v>-79.392500</v>
+        <v>-79.392499999999998</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
         <v>6377.590029</v>
       </c>
       <c r="AK7" s="1">
-        <v>1.771553</v>
+        <v>1.7715529999999999</v>
       </c>
       <c r="AL7" s="1">
-        <v>974.929000</v>
+        <v>974.92899999999997</v>
       </c>
       <c r="AM7" s="1">
-        <v>-87.040600</v>
+        <v>-87.040599999999998</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>6387.919247</v>
+        <v>6387.9192469999998</v>
       </c>
       <c r="AP7" s="1">
-        <v>1.774422</v>
+        <v>1.7744219999999999</v>
       </c>
       <c r="AQ7" s="1">
-        <v>984.040000</v>
+        <v>984.04</v>
       </c>
       <c r="AR7" s="1">
-        <v>-101.787000</v>
+        <v>-101.78700000000001</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>6398.614944</v>
+        <v>6398.6149439999999</v>
       </c>
       <c r="AU7" s="1">
         <v>1.777393</v>
       </c>
       <c r="AV7" s="1">
-        <v>995.270000</v>
+        <v>995.27</v>
       </c>
       <c r="AW7" s="1">
-        <v>-123.114000</v>
+        <v>-123.114</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>6409.626129</v>
+        <v>6409.6261290000002</v>
       </c>
       <c r="AZ7" s="1">
-        <v>1.780452</v>
+        <v>1.7804519999999999</v>
       </c>
       <c r="BA7" s="1">
-        <v>1004.780000</v>
+        <v>1004.78</v>
       </c>
       <c r="BB7" s="1">
-        <v>-141.657000</v>
+        <v>-141.65700000000001</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>6420.601108</v>
+        <v>6420.6011079999998</v>
       </c>
       <c r="BE7" s="1">
-        <v>1.783500</v>
+        <v>1.7835000000000001</v>
       </c>
       <c r="BF7" s="1">
-        <v>1049.440000</v>
+        <v>1049.44</v>
       </c>
       <c r="BG7" s="1">
-        <v>-225.819000</v>
+        <v>-225.81899999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>6431.372229</v>
+        <v>6431.3722289999996</v>
       </c>
       <c r="BJ7" s="1">
         <v>1.786492</v>
       </c>
       <c r="BK7" s="1">
-        <v>1127.840000</v>
+        <v>1127.8399999999999</v>
       </c>
       <c r="BL7" s="1">
-        <v>-361.331000</v>
+        <v>-361.33100000000002</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>6441.865592</v>
+        <v>6441.8655920000001</v>
       </c>
       <c r="BO7" s="1">
         <v>1.789407</v>
       </c>
       <c r="BP7" s="1">
-        <v>1258.160000</v>
+        <v>1258.1600000000001</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-571.176000</v>
+        <v>-571.17600000000004</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>6452.663496</v>
+        <v>6452.6634960000001</v>
       </c>
       <c r="BT7" s="1">
-        <v>1.792407</v>
+        <v>1.7924070000000001</v>
       </c>
       <c r="BU7" s="1">
-        <v>1405.210000</v>
+        <v>1405.21</v>
       </c>
       <c r="BV7" s="1">
-        <v>-795.037000</v>
+        <v>-795.03700000000003</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>6463.415808</v>
+        <v>6463.4158079999997</v>
       </c>
       <c r="BY7" s="1">
         <v>1.795393</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1566.540000</v>
+        <v>1566.54</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1029.140000</v>
+        <v>-1029.1400000000001</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>6475.222075</v>
+        <v>6475.2220749999997</v>
       </c>
       <c r="CD7" s="1">
         <v>1.798673</v>
       </c>
       <c r="CE7" s="1">
-        <v>1976.260000</v>
+        <v>1976.26</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1574.690000</v>
+        <v>-1574.69</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>6305.282283</v>
+        <v>6305.2822829999996</v>
       </c>
       <c r="B8" s="1">
-        <v>1.751467</v>
+        <v>1.7514670000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>903.835000</v>
+        <v>903.83500000000004</v>
       </c>
       <c r="D8" s="1">
-        <v>-195.321000</v>
+        <v>-195.321</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>6315.320815</v>
@@ -2038,450 +2454,450 @@
         <v>1.754256</v>
       </c>
       <c r="H8" s="1">
-        <v>920.568000</v>
+        <v>920.56799999999998</v>
       </c>
       <c r="I8" s="1">
-        <v>-165.515000</v>
+        <v>-165.51499999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>6325.454545</v>
+        <v>6325.4545449999996</v>
       </c>
       <c r="L8" s="1">
         <v>1.757071</v>
       </c>
       <c r="M8" s="1">
-        <v>942.378000</v>
+        <v>942.37800000000004</v>
       </c>
       <c r="N8" s="1">
-        <v>-118.367000</v>
+        <v>-118.367</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
         <v>6335.956338</v>
       </c>
       <c r="Q8" s="1">
-        <v>1.759988</v>
+        <v>1.7599880000000001</v>
       </c>
       <c r="R8" s="1">
-        <v>948.729000</v>
+        <v>948.72900000000004</v>
       </c>
       <c r="S8" s="1">
-        <v>-103.095000</v>
+        <v>-103.095</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>6346.492358</v>
+        <v>6346.4923580000004</v>
       </c>
       <c r="V8" s="1">
         <v>1.762915</v>
       </c>
       <c r="W8" s="1">
-        <v>955.032000</v>
+        <v>955.03200000000004</v>
       </c>
       <c r="X8" s="1">
-        <v>-89.332800</v>
+        <v>-89.332800000000006</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>6356.921239</v>
+        <v>6356.9212390000002</v>
       </c>
       <c r="AA8" s="1">
         <v>1.765811</v>
       </c>
       <c r="AB8" s="1">
-        <v>962.159000</v>
+        <v>962.15899999999999</v>
       </c>
       <c r="AC8" s="1">
-        <v>-79.820800</v>
+        <v>-79.820800000000006</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>6367.491977</v>
+        <v>6367.4919769999997</v>
       </c>
       <c r="AF8" s="1">
         <v>1.768748</v>
       </c>
       <c r="AG8" s="1">
-        <v>967.032000</v>
+        <v>967.03200000000004</v>
       </c>
       <c r="AH8" s="1">
-        <v>-79.400900</v>
+        <v>-79.400899999999993</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>6377.975420</v>
+        <v>6377.9754199999998</v>
       </c>
       <c r="AK8" s="1">
-        <v>1.771660</v>
+        <v>1.77166</v>
       </c>
       <c r="AL8" s="1">
-        <v>974.927000</v>
+        <v>974.92700000000002</v>
       </c>
       <c r="AM8" s="1">
-        <v>-87.031600</v>
+        <v>-87.031599999999997</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>6388.301134</v>
+        <v>6388.3011340000003</v>
       </c>
       <c r="AP8" s="1">
-        <v>1.774528</v>
+        <v>1.7745280000000001</v>
       </c>
       <c r="AQ8" s="1">
-        <v>984.026000</v>
+        <v>984.02599999999995</v>
       </c>
       <c r="AR8" s="1">
-        <v>-101.788000</v>
+        <v>-101.788</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>6398.981488</v>
+        <v>6398.9814880000004</v>
       </c>
       <c r="AU8" s="1">
         <v>1.777495</v>
       </c>
       <c r="AV8" s="1">
-        <v>995.286000</v>
+        <v>995.28599999999994</v>
       </c>
       <c r="AW8" s="1">
-        <v>-123.115000</v>
+        <v>-123.11499999999999</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>6409.982786</v>
+        <v>6409.9827859999996</v>
       </c>
       <c r="AZ8" s="1">
         <v>1.780551</v>
       </c>
       <c r="BA8" s="1">
-        <v>1004.790000</v>
+        <v>1004.79</v>
       </c>
       <c r="BB8" s="1">
-        <v>-141.648000</v>
+        <v>-141.648</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>6421.027205</v>
+        <v>6421.0272050000003</v>
       </c>
       <c r="BE8" s="1">
-        <v>1.783619</v>
+        <v>1.7836190000000001</v>
       </c>
       <c r="BF8" s="1">
-        <v>1049.440000</v>
+        <v>1049.44</v>
       </c>
       <c r="BG8" s="1">
-        <v>-225.834000</v>
+        <v>-225.834</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>6431.782420</v>
+        <v>6431.7824199999995</v>
       </c>
       <c r="BJ8" s="1">
-        <v>1.786606</v>
+        <v>1.7866059999999999</v>
       </c>
       <c r="BK8" s="1">
-        <v>1127.860000</v>
+        <v>1127.8599999999999</v>
       </c>
       <c r="BL8" s="1">
-        <v>-361.327000</v>
+        <v>-361.327</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>6442.257926</v>
+        <v>6442.2579260000002</v>
       </c>
       <c r="BO8" s="1">
-        <v>1.789516</v>
+        <v>1.7895160000000001</v>
       </c>
       <c r="BP8" s="1">
-        <v>1258.170000</v>
+        <v>1258.17</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-571.207000</v>
+        <v>-571.20699999999999</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>6453.081128</v>
+        <v>6453.0811279999998</v>
       </c>
       <c r="BT8" s="1">
-        <v>1.792523</v>
+        <v>1.7925230000000001</v>
       </c>
       <c r="BU8" s="1">
-        <v>1405.240000</v>
+        <v>1405.24</v>
       </c>
       <c r="BV8" s="1">
-        <v>-795.095000</v>
+        <v>-795.09500000000003</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>6463.833403</v>
+        <v>6463.8334029999996</v>
       </c>
       <c r="BY8" s="1">
         <v>1.795509</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1566.570000</v>
+        <v>1566.57</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1029.060000</v>
+        <v>-1029.06</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>6475.741354</v>
+        <v>6475.7413539999998</v>
       </c>
       <c r="CD8" s="1">
-        <v>1.798817</v>
+        <v>1.7988170000000001</v>
       </c>
       <c r="CE8" s="1">
-        <v>1975.340000</v>
+        <v>1975.34</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1573.200000</v>
+        <v>-1573.2</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>6305.625483</v>
+        <v>6305.6254829999998</v>
       </c>
       <c r="B9" s="1">
         <v>1.751563</v>
       </c>
       <c r="C9" s="1">
-        <v>903.877000</v>
+        <v>903.87699999999995</v>
       </c>
       <c r="D9" s="1">
-        <v>-195.386000</v>
+        <v>-195.386</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>6315.662525</v>
+        <v>6315.6625249999997</v>
       </c>
       <c r="G9" s="1">
         <v>1.754351</v>
       </c>
       <c r="H9" s="1">
-        <v>920.404000</v>
+        <v>920.404</v>
       </c>
       <c r="I9" s="1">
-        <v>-165.419000</v>
+        <v>-165.41900000000001</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
         <v>6325.800784</v>
       </c>
       <c r="L9" s="1">
-        <v>1.757167</v>
+        <v>1.7571669999999999</v>
       </c>
       <c r="M9" s="1">
-        <v>942.452000</v>
+        <v>942.452</v>
       </c>
       <c r="N9" s="1">
-        <v>-118.490000</v>
+        <v>-118.49</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>6336.612578</v>
+        <v>6336.6125780000002</v>
       </c>
       <c r="Q9" s="1">
-        <v>1.760170</v>
+        <v>1.76017</v>
       </c>
       <c r="R9" s="1">
-        <v>948.725000</v>
+        <v>948.72500000000002</v>
       </c>
       <c r="S9" s="1">
-        <v>-103.051000</v>
+        <v>-103.051</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>6346.927381</v>
+        <v>6346.9273810000004</v>
       </c>
       <c r="V9" s="1">
-        <v>1.763035</v>
+        <v>1.7630349999999999</v>
       </c>
       <c r="W9" s="1">
-        <v>954.994000</v>
+        <v>954.99400000000003</v>
       </c>
       <c r="X9" s="1">
-        <v>-89.350500</v>
+        <v>-89.350499999999997</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>6357.320022</v>
+        <v>6357.3200219999999</v>
       </c>
       <c r="AA9" s="1">
         <v>1.765922</v>
       </c>
       <c r="AB9" s="1">
-        <v>962.117000</v>
+        <v>962.11699999999996</v>
       </c>
       <c r="AC9" s="1">
-        <v>-79.885300</v>
+        <v>-79.885300000000001</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>6367.835705</v>
+        <v>6367.8357050000004</v>
       </c>
       <c r="AF9" s="1">
-        <v>1.768843</v>
+        <v>1.7688429999999999</v>
       </c>
       <c r="AG9" s="1">
-        <v>967.010000</v>
+        <v>967.01</v>
       </c>
       <c r="AH9" s="1">
-        <v>-79.402000</v>
+        <v>-79.402000000000001</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
         <v>6378.328074</v>
       </c>
       <c r="AK9" s="1">
-        <v>1.771758</v>
+        <v>1.7717579999999999</v>
       </c>
       <c r="AL9" s="1">
-        <v>974.918000</v>
+        <v>974.91800000000001</v>
       </c>
       <c r="AM9" s="1">
-        <v>-87.046100</v>
+        <v>-87.046099999999996</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>6388.664701</v>
+        <v>6388.6647009999997</v>
       </c>
       <c r="AP9" s="1">
         <v>1.774629</v>
       </c>
       <c r="AQ9" s="1">
-        <v>984.009000</v>
+        <v>984.00900000000001</v>
       </c>
       <c r="AR9" s="1">
-        <v>-101.803000</v>
+        <v>-101.803</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>6399.394159</v>
+        <v>6399.3941590000004</v>
       </c>
       <c r="AU9" s="1">
         <v>1.777609</v>
       </c>
       <c r="AV9" s="1">
-        <v>995.284000</v>
+        <v>995.28399999999999</v>
       </c>
       <c r="AW9" s="1">
-        <v>-123.090000</v>
+        <v>-123.09</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>6410.391990</v>
+        <v>6410.3919900000001</v>
       </c>
       <c r="AZ9" s="1">
         <v>1.780664</v>
       </c>
       <c r="BA9" s="1">
-        <v>1004.770000</v>
+        <v>1004.77</v>
       </c>
       <c r="BB9" s="1">
-        <v>-141.669000</v>
+        <v>-141.66900000000001</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>6421.325763</v>
+        <v>6421.3257629999998</v>
       </c>
       <c r="BE9" s="1">
-        <v>1.783702</v>
+        <v>1.7837019999999999</v>
       </c>
       <c r="BF9" s="1">
-        <v>1049.440000</v>
+        <v>1049.44</v>
       </c>
       <c r="BG9" s="1">
-        <v>-225.848000</v>
+        <v>-225.84800000000001</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>6432.120196</v>
+        <v>6432.1201959999999</v>
       </c>
       <c r="BJ9" s="1">
-        <v>1.786700</v>
+        <v>1.7867</v>
       </c>
       <c r="BK9" s="1">
-        <v>1127.840000</v>
+        <v>1127.8399999999999</v>
       </c>
       <c r="BL9" s="1">
-        <v>-361.353000</v>
+        <v>-361.35300000000001</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>6442.681051</v>
+        <v>6442.6810509999996</v>
       </c>
       <c r="BO9" s="1">
-        <v>1.789634</v>
+        <v>1.7896339999999999</v>
       </c>
       <c r="BP9" s="1">
-        <v>1258.190000</v>
+        <v>1258.19</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-571.209000</v>
+        <v>-571.20899999999995</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
         <v>6453.493305</v>
@@ -2490,634 +2906,634 @@
         <v>1.792637</v>
       </c>
       <c r="BU9" s="1">
-        <v>1405.450000</v>
+        <v>1405.45</v>
       </c>
       <c r="BV9" s="1">
-        <v>-795.358000</v>
+        <v>-795.35799999999995</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>6464.288265</v>
+        <v>6464.2882650000001</v>
       </c>
       <c r="BY9" s="1">
         <v>1.795636</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1566.480000</v>
+        <v>1566.48</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1029.070000</v>
+        <v>-1029.07</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>6476.256697</v>
+        <v>6476.2566969999998</v>
       </c>
       <c r="CD9" s="1">
-        <v>1.798960</v>
+        <v>1.7989599999999999</v>
       </c>
       <c r="CE9" s="1">
-        <v>1976.020000</v>
+        <v>1976.02</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1573.970000</v>
+        <v>-1573.97</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>6305.970730</v>
+        <v>6305.97073</v>
       </c>
       <c r="B10" s="1">
-        <v>1.751659</v>
+        <v>1.7516590000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>903.966000</v>
+        <v>903.96600000000001</v>
       </c>
       <c r="D10" s="1">
-        <v>-195.440000</v>
+        <v>-195.44</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>6316.325676</v>
+        <v>6316.3256760000004</v>
       </c>
       <c r="G10" s="1">
         <v>1.754535</v>
       </c>
       <c r="H10" s="1">
-        <v>920.327000</v>
+        <v>920.327</v>
       </c>
       <c r="I10" s="1">
-        <v>-165.275000</v>
+        <v>-165.27500000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>6326.454688</v>
+        <v>6326.4546879999998</v>
       </c>
       <c r="L10" s="1">
         <v>1.757349</v>
       </c>
       <c r="M10" s="1">
-        <v>942.496000</v>
+        <v>942.49599999999998</v>
       </c>
       <c r="N10" s="1">
-        <v>-118.412000</v>
+        <v>-118.41200000000001</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>6337.001409</v>
+        <v>6337.0014090000004</v>
       </c>
       <c r="Q10" s="1">
         <v>1.760278</v>
       </c>
       <c r="R10" s="1">
-        <v>948.737000</v>
+        <v>948.73699999999997</v>
       </c>
       <c r="S10" s="1">
-        <v>-103.035000</v>
+        <v>-103.035</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>6347.195683</v>
+        <v>6347.1956829999999</v>
       </c>
       <c r="V10" s="1">
-        <v>1.763110</v>
+        <v>1.76311</v>
       </c>
       <c r="W10" s="1">
-        <v>955.049000</v>
+        <v>955.04899999999998</v>
       </c>
       <c r="X10" s="1">
-        <v>-89.379900</v>
+        <v>-89.379900000000006</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>6357.672182</v>
+        <v>6357.6721820000002</v>
       </c>
       <c r="AA10" s="1">
-        <v>1.766020</v>
+        <v>1.7660199999999999</v>
       </c>
       <c r="AB10" s="1">
-        <v>962.192000</v>
+        <v>962.19200000000001</v>
       </c>
       <c r="AC10" s="1">
-        <v>-79.835000</v>
+        <v>-79.834999999999994</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>6368.181416</v>
+        <v>6368.1814160000004</v>
       </c>
       <c r="AF10" s="1">
         <v>1.768939</v>
       </c>
       <c r="AG10" s="1">
-        <v>967.024000</v>
+        <v>967.024</v>
       </c>
       <c r="AH10" s="1">
-        <v>-79.393300</v>
+        <v>-79.393299999999996</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>6378.675307</v>
+        <v>6378.6753070000004</v>
       </c>
       <c r="AK10" s="1">
         <v>1.771854</v>
       </c>
       <c r="AL10" s="1">
-        <v>974.915000</v>
+        <v>974.91499999999996</v>
       </c>
       <c r="AM10" s="1">
-        <v>-87.018200</v>
+        <v>-87.018199999999993</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>6389.079389</v>
+        <v>6389.0793890000004</v>
       </c>
       <c r="AP10" s="1">
-        <v>1.774744</v>
+        <v>1.7747440000000001</v>
       </c>
       <c r="AQ10" s="1">
-        <v>984.023000</v>
+        <v>984.02300000000002</v>
       </c>
       <c r="AR10" s="1">
-        <v>-101.807000</v>
+        <v>-101.807</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
         <v>6399.706142</v>
       </c>
       <c r="AU10" s="1">
-        <v>1.777696</v>
+        <v>1.7776959999999999</v>
       </c>
       <c r="AV10" s="1">
-        <v>995.285000</v>
+        <v>995.28499999999997</v>
       </c>
       <c r="AW10" s="1">
-        <v>-123.104000</v>
+        <v>-123.104</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>6410.702486</v>
+        <v>6410.7024860000001</v>
       </c>
       <c r="AZ10" s="1">
         <v>1.780751</v>
       </c>
       <c r="BA10" s="1">
-        <v>1004.790000</v>
+        <v>1004.79</v>
       </c>
       <c r="BB10" s="1">
-        <v>-141.671000</v>
+        <v>-141.67099999999999</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>6421.687378</v>
+        <v>6421.6873779999996</v>
       </c>
       <c r="BE10" s="1">
-        <v>1.783802</v>
+        <v>1.7838020000000001</v>
       </c>
       <c r="BF10" s="1">
-        <v>1049.440000</v>
+        <v>1049.44</v>
       </c>
       <c r="BG10" s="1">
-        <v>-225.829000</v>
+        <v>-225.82900000000001</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>6432.506579</v>
+        <v>6432.5065789999999</v>
       </c>
       <c r="BJ10" s="1">
         <v>1.786807</v>
       </c>
       <c r="BK10" s="1">
-        <v>1127.830000</v>
+        <v>1127.83</v>
       </c>
       <c r="BL10" s="1">
-        <v>-361.307000</v>
+        <v>-361.30700000000002</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>6443.078338</v>
+        <v>6443.0783380000003</v>
       </c>
       <c r="BO10" s="1">
         <v>1.789744</v>
       </c>
       <c r="BP10" s="1">
-        <v>1258.140000</v>
+        <v>1258.1400000000001</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-571.226000</v>
+        <v>-571.226</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>6453.911431</v>
+        <v>6453.9114310000004</v>
       </c>
       <c r="BT10" s="1">
         <v>1.792753</v>
       </c>
       <c r="BU10" s="1">
-        <v>1405.340000</v>
+        <v>1405.34</v>
       </c>
       <c r="BV10" s="1">
-        <v>-795.419000</v>
+        <v>-795.41899999999998</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>6464.736617</v>
+        <v>6464.7366169999996</v>
       </c>
       <c r="BY10" s="1">
-        <v>1.795760</v>
+        <v>1.79576</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1566.540000</v>
+        <v>1566.54</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1029.220000</v>
+        <v>-1029.22</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
         <v>6476.811753</v>
       </c>
       <c r="CD10" s="1">
-        <v>1.799114</v>
+        <v>1.7991140000000001</v>
       </c>
       <c r="CE10" s="1">
-        <v>1975.690000</v>
+        <v>1975.69</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1574.700000</v>
+        <v>-1574.7</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>6306.619998</v>
+        <v>6306.6199980000001</v>
       </c>
       <c r="B11" s="1">
-        <v>1.751839</v>
+        <v>1.7518389999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>903.904000</v>
+        <v>903.904</v>
       </c>
       <c r="D11" s="1">
-        <v>-195.365000</v>
+        <v>-195.36500000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
         <v>6316.697212</v>
       </c>
       <c r="G11" s="1">
-        <v>1.754638</v>
+        <v>1.7546379999999999</v>
       </c>
       <c r="H11" s="1">
-        <v>920.506000</v>
+        <v>920.50599999999997</v>
       </c>
       <c r="I11" s="1">
-        <v>-165.424000</v>
+        <v>-165.42400000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>6326.836430</v>
+        <v>6326.8364300000003</v>
       </c>
       <c r="L11" s="1">
         <v>1.757455</v>
       </c>
       <c r="M11" s="1">
-        <v>942.283000</v>
+        <v>942.28300000000002</v>
       </c>
       <c r="N11" s="1">
-        <v>-118.436000</v>
+        <v>-118.43600000000001</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>6337.347153</v>
+        <v>6337.3471529999997</v>
       </c>
       <c r="Q11" s="1">
-        <v>1.760374</v>
+        <v>1.7603740000000001</v>
       </c>
       <c r="R11" s="1">
-        <v>948.779000</v>
+        <v>948.779</v>
       </c>
       <c r="S11" s="1">
-        <v>-103.058000</v>
+        <v>-103.05800000000001</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>6347.537923</v>
+        <v>6347.5379229999999</v>
       </c>
       <c r="V11" s="1">
-        <v>1.763205</v>
+        <v>1.7632049999999999</v>
       </c>
       <c r="W11" s="1">
-        <v>955.057000</v>
+        <v>955.05700000000002</v>
       </c>
       <c r="X11" s="1">
-        <v>-89.374300</v>
+        <v>-89.374300000000005</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>6358.019414</v>
+        <v>6358.0194140000003</v>
       </c>
       <c r="AA11" s="1">
-        <v>1.766117</v>
+        <v>1.7661169999999999</v>
       </c>
       <c r="AB11" s="1">
-        <v>962.114000</v>
+        <v>962.11400000000003</v>
       </c>
       <c r="AC11" s="1">
-        <v>-79.866700</v>
+        <v>-79.866699999999994</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>6368.601529</v>
+        <v>6368.6015289999996</v>
       </c>
       <c r="AF11" s="1">
         <v>1.769056</v>
       </c>
       <c r="AG11" s="1">
-        <v>967.056000</v>
+        <v>967.05600000000004</v>
       </c>
       <c r="AH11" s="1">
-        <v>-79.402300</v>
+        <v>-79.402299999999997</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
         <v>6379.090921</v>
       </c>
       <c r="AK11" s="1">
-        <v>1.771970</v>
+        <v>1.77197</v>
       </c>
       <c r="AL11" s="1">
-        <v>974.933000</v>
+        <v>974.93299999999999</v>
       </c>
       <c r="AM11" s="1">
-        <v>-87.059400</v>
+        <v>-87.059399999999997</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>6389.383437</v>
+        <v>6389.3834370000004</v>
       </c>
       <c r="AP11" s="1">
         <v>1.774829</v>
       </c>
       <c r="AQ11" s="1">
-        <v>984.026000</v>
+        <v>984.02599999999995</v>
       </c>
       <c r="AR11" s="1">
-        <v>-101.783000</v>
+        <v>-101.783</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
         <v>6400.070702</v>
       </c>
       <c r="AU11" s="1">
-        <v>1.777797</v>
+        <v>1.7777970000000001</v>
       </c>
       <c r="AV11" s="1">
-        <v>995.291000</v>
+        <v>995.29100000000005</v>
       </c>
       <c r="AW11" s="1">
-        <v>-123.119000</v>
+        <v>-123.119</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>6411.061055</v>
+        <v>6411.0610550000001</v>
       </c>
       <c r="AZ11" s="1">
-        <v>1.780850</v>
+        <v>1.78085</v>
       </c>
       <c r="BA11" s="1">
-        <v>1004.780000</v>
+        <v>1004.78</v>
       </c>
       <c r="BB11" s="1">
-        <v>-141.653000</v>
+        <v>-141.65299999999999</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>6422.048464</v>
+        <v>6422.0484640000004</v>
       </c>
       <c r="BE11" s="1">
-        <v>1.783902</v>
+        <v>1.7839020000000001</v>
       </c>
       <c r="BF11" s="1">
-        <v>1049.430000</v>
+        <v>1049.43</v>
       </c>
       <c r="BG11" s="1">
-        <v>-225.819000</v>
+        <v>-225.81899999999999</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
         <v>6433.062594</v>
       </c>
       <c r="BJ11" s="1">
-        <v>1.786962</v>
+        <v>1.7869619999999999</v>
       </c>
       <c r="BK11" s="1">
-        <v>1127.820000</v>
+        <v>1127.82</v>
       </c>
       <c r="BL11" s="1">
-        <v>-361.326000</v>
+        <v>-361.32600000000002</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>6443.497924</v>
+        <v>6443.4979240000002</v>
       </c>
       <c r="BO11" s="1">
-        <v>1.789861</v>
+        <v>1.7898609999999999</v>
       </c>
       <c r="BP11" s="1">
-        <v>1258.110000</v>
+        <v>1258.1099999999999</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-571.189000</v>
+        <v>-571.18899999999996</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>6454.321622</v>
+        <v>6454.3216220000004</v>
       </c>
       <c r="BT11" s="1">
         <v>1.792867</v>
       </c>
       <c r="BU11" s="1">
-        <v>1405.270000</v>
+        <v>1405.27</v>
       </c>
       <c r="BV11" s="1">
-        <v>-795.617000</v>
+        <v>-795.61699999999996</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
         <v>6465.159705</v>
       </c>
       <c r="BY11" s="1">
-        <v>1.795878</v>
+        <v>1.7958780000000001</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1566.630000</v>
+        <v>1566.63</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1029.180000</v>
+        <v>-1029.18</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
         <v>6477.342936</v>
       </c>
       <c r="CD11" s="1">
-        <v>1.799262</v>
+        <v>1.7992619999999999</v>
       </c>
       <c r="CE11" s="1">
-        <v>1975.200000</v>
+        <v>1975.2</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1573.420000</v>
+        <v>-1573.42</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>6306.991498</v>
+        <v>6306.9914980000003</v>
       </c>
       <c r="B12" s="1">
-        <v>1.751942</v>
+        <v>1.7519420000000001</v>
       </c>
       <c r="C12" s="1">
-        <v>903.875000</v>
+        <v>903.875</v>
       </c>
       <c r="D12" s="1">
-        <v>-195.559000</v>
+        <v>-195.559</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>6317.044413</v>
+        <v>6317.0444129999996</v>
       </c>
       <c r="G12" s="1">
-        <v>1.754735</v>
+        <v>1.7547349999999999</v>
       </c>
       <c r="H12" s="1">
-        <v>920.345000</v>
+        <v>920.34500000000003</v>
       </c>
       <c r="I12" s="1">
-        <v>-165.657000</v>
+        <v>-165.65700000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
         <v>6327.184628</v>
       </c>
       <c r="L12" s="1">
-        <v>1.757551</v>
+        <v>1.7575510000000001</v>
       </c>
       <c r="M12" s="1">
-        <v>942.233000</v>
+        <v>942.23299999999995</v>
       </c>
       <c r="N12" s="1">
-        <v>-118.184000</v>
+        <v>-118.184</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>6337.696800</v>
+        <v>6337.6967999999997</v>
       </c>
       <c r="Q12" s="1">
-        <v>1.760471</v>
+        <v>1.7604709999999999</v>
       </c>
       <c r="R12" s="1">
-        <v>948.764000</v>
+        <v>948.76400000000001</v>
       </c>
       <c r="S12" s="1">
-        <v>-103.088000</v>
+        <v>-103.08799999999999</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>6347.955059</v>
+        <v>6347.9550589999999</v>
       </c>
       <c r="V12" s="1">
-        <v>1.763321</v>
+        <v>1.7633209999999999</v>
       </c>
       <c r="W12" s="1">
-        <v>954.992000</v>
+        <v>954.99199999999996</v>
       </c>
       <c r="X12" s="1">
-        <v>-89.383500</v>
+        <v>-89.383499999999998</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
         <v>6358.434534</v>
@@ -3126,181 +3542,181 @@
         <v>1.766232</v>
       </c>
       <c r="AB12" s="1">
-        <v>962.138000</v>
+        <v>962.13800000000003</v>
       </c>
       <c r="AC12" s="1">
-        <v>-79.853400</v>
+        <v>-79.853399999999993</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>6368.875815</v>
+        <v>6368.8758150000003</v>
       </c>
       <c r="AF12" s="1">
-        <v>1.769132</v>
+        <v>1.7691319999999999</v>
       </c>
       <c r="AG12" s="1">
-        <v>967.041000</v>
+        <v>967.04100000000005</v>
       </c>
       <c r="AH12" s="1">
-        <v>-79.383600</v>
+        <v>-79.383600000000001</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
         <v>6379.391001</v>
       </c>
       <c r="AK12" s="1">
-        <v>1.772053</v>
+        <v>1.7720530000000001</v>
       </c>
       <c r="AL12" s="1">
-        <v>974.926000</v>
+        <v>974.92600000000004</v>
       </c>
       <c r="AM12" s="1">
-        <v>-87.028000</v>
+        <v>-87.028000000000006</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>6389.741517</v>
+        <v>6389.7415170000004</v>
       </c>
       <c r="AP12" s="1">
-        <v>1.774928</v>
+        <v>1.7749280000000001</v>
       </c>
       <c r="AQ12" s="1">
-        <v>984.041000</v>
+        <v>984.04100000000005</v>
       </c>
       <c r="AR12" s="1">
-        <v>-101.788000</v>
+        <v>-101.788</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
         <v>6400.438733</v>
       </c>
       <c r="AU12" s="1">
-        <v>1.777900</v>
+        <v>1.7779</v>
       </c>
       <c r="AV12" s="1">
-        <v>995.278000</v>
+        <v>995.27800000000002</v>
       </c>
       <c r="AW12" s="1">
-        <v>-123.105000</v>
+        <v>-123.105</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>6411.421184</v>
+        <v>6411.4211839999998</v>
       </c>
       <c r="AZ12" s="1">
-        <v>1.780950</v>
+        <v>1.78095</v>
       </c>
       <c r="BA12" s="1">
-        <v>1004.800000</v>
+        <v>1004.8</v>
       </c>
       <c r="BB12" s="1">
-        <v>-141.659000</v>
+        <v>-141.65899999999999</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>6422.769152</v>
+        <v>6422.7691519999998</v>
       </c>
       <c r="BE12" s="1">
         <v>1.784103</v>
       </c>
       <c r="BF12" s="1">
-        <v>1049.440000</v>
+        <v>1049.44</v>
       </c>
       <c r="BG12" s="1">
-        <v>-225.821000</v>
+        <v>-225.821</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>6433.270422</v>
+        <v>6433.2704219999996</v>
       </c>
       <c r="BJ12" s="1">
-        <v>1.787020</v>
+        <v>1.7870200000000001</v>
       </c>
       <c r="BK12" s="1">
-        <v>1127.850000</v>
+        <v>1127.8499999999999</v>
       </c>
       <c r="BL12" s="1">
-        <v>-361.346000</v>
+        <v>-361.346</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>6443.896708</v>
+        <v>6443.8967080000002</v>
       </c>
       <c r="BO12" s="1">
         <v>1.789971</v>
       </c>
       <c r="BP12" s="1">
-        <v>1258.100000</v>
+        <v>1258.0999999999999</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-571.172000</v>
+        <v>-571.17200000000003</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>6454.737799</v>
+        <v>6454.7377990000005</v>
       </c>
       <c r="BT12" s="1">
         <v>1.792983</v>
       </c>
       <c r="BU12" s="1">
-        <v>1405.160000</v>
+        <v>1405.16</v>
       </c>
       <c r="BV12" s="1">
-        <v>-795.744000</v>
+        <v>-795.74400000000003</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>6465.581305</v>
+        <v>6465.5813049999997</v>
       </c>
       <c r="BY12" s="1">
         <v>1.795995</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1566.560000</v>
+        <v>1566.56</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1029.100000</v>
+        <v>-1029.0999999999999</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>6478.163351</v>
+        <v>6478.1633510000001</v>
       </c>
       <c r="CD12" s="1">
-        <v>1.799490</v>
+        <v>1.79949</v>
       </c>
       <c r="CE12" s="1">
-        <v>1973.810000</v>
+        <v>1973.81</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1574.130000</v>
+        <v>-1574.13</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
         <v>6307.336217</v>
       </c>
@@ -3308,28 +3724,28 @@
         <v>1.752038</v>
       </c>
       <c r="C13" s="1">
-        <v>903.806000</v>
+        <v>903.80600000000004</v>
       </c>
       <c r="D13" s="1">
-        <v>-195.112000</v>
+        <v>-195.11199999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>6317.390619</v>
+        <v>6317.3906189999998</v>
       </c>
       <c r="G13" s="1">
         <v>1.754831</v>
       </c>
       <c r="H13" s="1">
-        <v>920.525000</v>
+        <v>920.52499999999998</v>
       </c>
       <c r="I13" s="1">
-        <v>-165.343000</v>
+        <v>-165.34299999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
         <v>6327.527822</v>
@@ -3338,360 +3754,360 @@
         <v>1.757647</v>
       </c>
       <c r="M13" s="1">
-        <v>942.436000</v>
+        <v>942.43600000000004</v>
       </c>
       <c r="N13" s="1">
-        <v>-118.504000</v>
+        <v>-118.504</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>6338.115921</v>
+        <v>6338.1159209999996</v>
       </c>
       <c r="Q13" s="1">
         <v>1.760588</v>
       </c>
       <c r="R13" s="1">
-        <v>948.755000</v>
+        <v>948.755</v>
       </c>
       <c r="S13" s="1">
-        <v>-103.076000</v>
+        <v>-103.07599999999999</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>6348.234803</v>
+        <v>6348.2348030000003</v>
       </c>
       <c r="V13" s="1">
-        <v>1.763399</v>
+        <v>1.7633989999999999</v>
       </c>
       <c r="W13" s="1">
-        <v>955.082000</v>
+        <v>955.08199999999999</v>
       </c>
       <c r="X13" s="1">
-        <v>-89.405900</v>
+        <v>-89.405900000000003</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>6358.718411</v>
+        <v>6358.7184109999998</v>
       </c>
       <c r="AA13" s="1">
         <v>1.766311</v>
       </c>
       <c r="AB13" s="1">
-        <v>962.128000</v>
+        <v>962.12800000000004</v>
       </c>
       <c r="AC13" s="1">
-        <v>-79.866900</v>
+        <v>-79.866900000000001</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>6369.220038</v>
+        <v>6369.2200380000004</v>
       </c>
       <c r="AF13" s="1">
         <v>1.769228</v>
       </c>
       <c r="AG13" s="1">
-        <v>967.059000</v>
+        <v>967.05899999999997</v>
       </c>
       <c r="AH13" s="1">
-        <v>-79.380500</v>
+        <v>-79.380499999999998</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
         <v>6379.739192</v>
       </c>
       <c r="AK13" s="1">
-        <v>1.772150</v>
+        <v>1.7721499999999999</v>
       </c>
       <c r="AL13" s="1">
-        <v>974.909000</v>
+        <v>974.90899999999999</v>
       </c>
       <c r="AM13" s="1">
-        <v>-87.015200</v>
+        <v>-87.015199999999993</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>6390.102602</v>
+        <v>6390.1026019999999</v>
       </c>
       <c r="AP13" s="1">
         <v>1.775029</v>
       </c>
       <c r="AQ13" s="1">
-        <v>984.038000</v>
+        <v>984.03800000000001</v>
       </c>
       <c r="AR13" s="1">
-        <v>-101.796000</v>
+        <v>-101.79600000000001</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>6401.165404</v>
+        <v>6401.1654040000003</v>
       </c>
       <c r="AU13" s="1">
-        <v>1.778102</v>
+        <v>1.7781020000000001</v>
       </c>
       <c r="AV13" s="1">
-        <v>995.279000</v>
+        <v>995.279</v>
       </c>
       <c r="AW13" s="1">
-        <v>-123.112000</v>
+        <v>-123.11199999999999</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>6412.137407</v>
+        <v>6412.1374070000002</v>
       </c>
       <c r="AZ13" s="1">
-        <v>1.781149</v>
+        <v>1.7811490000000001</v>
       </c>
       <c r="BA13" s="1">
-        <v>1004.800000</v>
+        <v>1004.8</v>
       </c>
       <c r="BB13" s="1">
-        <v>-141.656000</v>
+        <v>-141.65600000000001</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>6423.157985</v>
+        <v>6423.1579849999998</v>
       </c>
       <c r="BE13" s="1">
         <v>1.784211</v>
       </c>
       <c r="BF13" s="1">
-        <v>1049.410000</v>
+        <v>1049.4100000000001</v>
       </c>
       <c r="BG13" s="1">
-        <v>-225.795000</v>
+        <v>-225.79499999999999</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>6433.648866</v>
+        <v>6433.6488660000005</v>
       </c>
       <c r="BJ13" s="1">
-        <v>1.787125</v>
+        <v>1.7871250000000001</v>
       </c>
       <c r="BK13" s="1">
-        <v>1127.850000</v>
+        <v>1127.8499999999999</v>
       </c>
       <c r="BL13" s="1">
-        <v>-361.349000</v>
+        <v>-361.34899999999999</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>6444.318339</v>
+        <v>6444.3183390000004</v>
       </c>
       <c r="BO13" s="1">
-        <v>1.790088</v>
+        <v>1.7900879999999999</v>
       </c>
       <c r="BP13" s="1">
-        <v>1258.130000</v>
+        <v>1258.1300000000001</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-571.200000</v>
+        <v>-571.20000000000005</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>6455.489733</v>
+        <v>6455.4897330000003</v>
       </c>
       <c r="BT13" s="1">
-        <v>1.793192</v>
+        <v>1.7931919999999999</v>
       </c>
       <c r="BU13" s="1">
-        <v>1405.000000</v>
+        <v>1405</v>
       </c>
       <c r="BV13" s="1">
-        <v>-795.665000</v>
+        <v>-795.66499999999996</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>6466.382838</v>
+        <v>6466.3828380000004</v>
       </c>
       <c r="BY13" s="1">
         <v>1.796217</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1566.490000</v>
+        <v>1566.49</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1029.210000</v>
+        <v>-1029.21</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>6478.376102</v>
+        <v>6478.3761020000002</v>
       </c>
       <c r="CD13" s="1">
-        <v>1.799549</v>
+        <v>1.7995490000000001</v>
       </c>
       <c r="CE13" s="1">
-        <v>1974.590000</v>
+        <v>1974.59</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1575.570000</v>
+        <v>-1575.57</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>6307.677929</v>
+        <v>6307.6779290000004</v>
       </c>
       <c r="B14" s="1">
-        <v>1.752133</v>
+        <v>1.7521329999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>903.948000</v>
+        <v>903.94799999999998</v>
       </c>
       <c r="D14" s="1">
-        <v>-195.381000</v>
+        <v>-195.381</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>6317.804251</v>
+        <v>6317.8042509999996</v>
       </c>
       <c r="G14" s="1">
-        <v>1.754946</v>
+        <v>1.7549459999999999</v>
       </c>
       <c r="H14" s="1">
-        <v>920.783000</v>
+        <v>920.78300000000002</v>
       </c>
       <c r="I14" s="1">
-        <v>-165.402000</v>
+        <v>-165.40199999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>6327.960371</v>
+        <v>6327.9603710000001</v>
       </c>
       <c r="L14" s="1">
-        <v>1.757767</v>
+        <v>1.7577670000000001</v>
       </c>
       <c r="M14" s="1">
-        <v>942.311000</v>
+        <v>942.31100000000004</v>
       </c>
       <c r="N14" s="1">
-        <v>-118.137000</v>
+        <v>-118.137</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>6338.393680</v>
+        <v>6338.3936800000001</v>
       </c>
       <c r="Q14" s="1">
-        <v>1.760665</v>
+        <v>1.7606649999999999</v>
       </c>
       <c r="R14" s="1">
-        <v>948.747000</v>
+        <v>948.74699999999996</v>
       </c>
       <c r="S14" s="1">
-        <v>-103.097000</v>
+        <v>-103.09699999999999</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>6348.577570</v>
+        <v>6348.5775700000004</v>
       </c>
       <c r="V14" s="1">
-        <v>1.763494</v>
+        <v>1.7634939999999999</v>
       </c>
       <c r="W14" s="1">
-        <v>955.085000</v>
+        <v>955.08500000000004</v>
       </c>
       <c r="X14" s="1">
-        <v>-89.349700</v>
+        <v>-89.349699999999999</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>6359.065477</v>
+        <v>6359.0654770000001</v>
       </c>
       <c r="AA14" s="1">
-        <v>1.766407</v>
+        <v>1.7664070000000001</v>
       </c>
       <c r="AB14" s="1">
-        <v>962.093000</v>
+        <v>962.09299999999996</v>
       </c>
       <c r="AC14" s="1">
-        <v>-79.794200</v>
+        <v>-79.794200000000004</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>6369.564262</v>
+        <v>6369.5642619999999</v>
       </c>
       <c r="AF14" s="1">
         <v>1.769323</v>
       </c>
       <c r="AG14" s="1">
-        <v>967.065000</v>
+        <v>967.06500000000005</v>
       </c>
       <c r="AH14" s="1">
-        <v>-79.378700</v>
+        <v>-79.378699999999995</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>6380.085896</v>
+        <v>6380.0858959999996</v>
       </c>
       <c r="AK14" s="1">
         <v>1.772246</v>
       </c>
       <c r="AL14" s="1">
-        <v>974.933000</v>
+        <v>974.93299999999999</v>
       </c>
       <c r="AM14" s="1">
-        <v>-87.038700</v>
+        <v>-87.038700000000006</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>6390.821834</v>
+        <v>6390.8218340000003</v>
       </c>
       <c r="AP14" s="1">
         <v>1.775228</v>
       </c>
       <c r="AQ14" s="1">
-        <v>984.028000</v>
+        <v>984.02800000000002</v>
       </c>
       <c r="AR14" s="1">
-        <v>-101.799000</v>
+        <v>-101.79900000000001</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
         <v>6401.530428</v>
@@ -3700,1056 +4116,1056 @@
         <v>1.778203</v>
       </c>
       <c r="AV14" s="1">
-        <v>995.281000</v>
+        <v>995.28099999999995</v>
       </c>
       <c r="AW14" s="1">
-        <v>-123.118000</v>
+        <v>-123.11799999999999</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>6412.493999</v>
+        <v>6412.4939990000003</v>
       </c>
       <c r="AZ14" s="1">
-        <v>1.781248</v>
+        <v>1.7812479999999999</v>
       </c>
       <c r="BA14" s="1">
-        <v>1004.800000</v>
+        <v>1004.8</v>
       </c>
       <c r="BB14" s="1">
-        <v>-141.669000</v>
+        <v>-141.66900000000001</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>6423.520559</v>
+        <v>6423.5205589999996</v>
       </c>
       <c r="BE14" s="1">
         <v>1.784311</v>
       </c>
       <c r="BF14" s="1">
-        <v>1049.450000</v>
+        <v>1049.45</v>
       </c>
       <c r="BG14" s="1">
-        <v>-225.834000</v>
+        <v>-225.834</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>6434.324417</v>
+        <v>6434.3244169999998</v>
       </c>
       <c r="BJ14" s="1">
         <v>1.787312</v>
       </c>
       <c r="BK14" s="1">
-        <v>1127.810000</v>
+        <v>1127.81</v>
       </c>
       <c r="BL14" s="1">
-        <v>-361.326000</v>
+        <v>-361.32600000000002</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>6445.018659</v>
+        <v>6445.0186590000003</v>
       </c>
       <c r="BO14" s="1">
-        <v>1.790283</v>
+        <v>1.7902830000000001</v>
       </c>
       <c r="BP14" s="1">
-        <v>1258.130000</v>
+        <v>1258.1300000000001</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-571.199000</v>
+        <v>-571.19899999999996</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>6455.601796</v>
+        <v>6455.6017959999999</v>
       </c>
       <c r="BT14" s="1">
         <v>1.793223</v>
       </c>
       <c r="BU14" s="1">
-        <v>1404.790000</v>
+        <v>1404.79</v>
       </c>
       <c r="BV14" s="1">
-        <v>-795.662000</v>
+        <v>-795.66200000000003</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>6466.858633</v>
+        <v>6466.8586329999998</v>
       </c>
       <c r="BY14" s="1">
-        <v>1.796350</v>
+        <v>1.7963499999999999</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1566.460000</v>
+        <v>1566.46</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1029.090000</v>
+        <v>-1029.0899999999999</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>6478.896939</v>
+        <v>6478.8969390000002</v>
       </c>
       <c r="CD14" s="1">
-        <v>1.799694</v>
+        <v>1.7996939999999999</v>
       </c>
       <c r="CE14" s="1">
-        <v>1973.880000</v>
+        <v>1973.88</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1574.980000</v>
+        <v>-1574.98</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>6308.102503</v>
+        <v>6308.1025030000001</v>
       </c>
       <c r="B15" s="1">
         <v>1.752251</v>
       </c>
       <c r="C15" s="1">
-        <v>903.944000</v>
+        <v>903.94399999999996</v>
       </c>
       <c r="D15" s="1">
-        <v>-195.389000</v>
+        <v>-195.38900000000001</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>6318.094441</v>
+        <v>6318.0944410000002</v>
       </c>
       <c r="G15" s="1">
         <v>1.755026</v>
       </c>
       <c r="H15" s="1">
-        <v>920.494000</v>
+        <v>920.49400000000003</v>
       </c>
       <c r="I15" s="1">
-        <v>-165.875000</v>
+        <v>-165.875</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
         <v>6328.222718</v>
       </c>
       <c r="L15" s="1">
-        <v>1.757840</v>
+        <v>1.7578400000000001</v>
       </c>
       <c r="M15" s="1">
-        <v>942.291000</v>
+        <v>942.29100000000005</v>
       </c>
       <c r="N15" s="1">
-        <v>-118.285000</v>
+        <v>-118.285</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>6338.740911</v>
+        <v>6338.7409109999999</v>
       </c>
       <c r="Q15" s="1">
         <v>1.760761</v>
       </c>
       <c r="R15" s="1">
-        <v>948.724000</v>
+        <v>948.72400000000005</v>
       </c>
       <c r="S15" s="1">
-        <v>-103.072000</v>
+        <v>-103.072</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>6348.922289</v>
+        <v>6348.9222890000001</v>
       </c>
       <c r="V15" s="1">
-        <v>1.763590</v>
+        <v>1.76359</v>
       </c>
       <c r="W15" s="1">
-        <v>955.095000</v>
+        <v>955.09500000000003</v>
       </c>
       <c r="X15" s="1">
-        <v>-89.341200</v>
+        <v>-89.341200000000001</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>6359.414132</v>
+        <v>6359.4141319999999</v>
       </c>
       <c r="AA15" s="1">
-        <v>1.766504</v>
+        <v>1.7665040000000001</v>
       </c>
       <c r="AB15" s="1">
-        <v>962.048000</v>
+        <v>962.048</v>
       </c>
       <c r="AC15" s="1">
-        <v>-79.862800</v>
+        <v>-79.862799999999993</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>6370.250725</v>
+        <v>6370.2507249999999</v>
       </c>
       <c r="AF15" s="1">
         <v>1.769514</v>
       </c>
       <c r="AG15" s="1">
-        <v>967.042000</v>
+        <v>967.04200000000003</v>
       </c>
       <c r="AH15" s="1">
-        <v>-79.406100</v>
+        <v>-79.406099999999995</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>6380.785753</v>
+        <v>6380.7857530000001</v>
       </c>
       <c r="AK15" s="1">
-        <v>1.772440</v>
+        <v>1.77244</v>
       </c>
       <c r="AL15" s="1">
-        <v>974.913000</v>
+        <v>974.91300000000001</v>
       </c>
       <c r="AM15" s="1">
-        <v>-87.009300</v>
+        <v>-87.009299999999996</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>6391.184874</v>
+        <v>6391.1848739999996</v>
       </c>
       <c r="AP15" s="1">
-        <v>1.775329</v>
+        <v>1.7753289999999999</v>
       </c>
       <c r="AQ15" s="1">
-        <v>984.034000</v>
+        <v>984.03399999999999</v>
       </c>
       <c r="AR15" s="1">
-        <v>-101.788000</v>
+        <v>-101.788</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>6401.893995</v>
+        <v>6401.8939950000004</v>
       </c>
       <c r="AU15" s="1">
-        <v>1.778304</v>
+        <v>1.7783040000000001</v>
       </c>
       <c r="AV15" s="1">
-        <v>995.297000</v>
+        <v>995.29700000000003</v>
       </c>
       <c r="AW15" s="1">
-        <v>-123.093000</v>
+        <v>-123.093</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>6412.853597</v>
+        <v>6412.8535970000003</v>
       </c>
       <c r="AZ15" s="1">
-        <v>1.781348</v>
+        <v>1.7813479999999999</v>
       </c>
       <c r="BA15" s="1">
-        <v>1004.820000</v>
+        <v>1004.82</v>
       </c>
       <c r="BB15" s="1">
-        <v>-141.654000</v>
+        <v>-141.654</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>6424.180239</v>
+        <v>6424.1802390000003</v>
       </c>
       <c r="BE15" s="1">
-        <v>1.784495</v>
+        <v>1.7844949999999999</v>
       </c>
       <c r="BF15" s="1">
-        <v>1049.430000</v>
+        <v>1049.43</v>
       </c>
       <c r="BG15" s="1">
-        <v>-225.839000</v>
+        <v>-225.839</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>6434.771312</v>
+        <v>6434.7713119999999</v>
       </c>
       <c r="BJ15" s="1">
         <v>1.787436</v>
       </c>
       <c r="BK15" s="1">
-        <v>1127.810000</v>
+        <v>1127.81</v>
       </c>
       <c r="BL15" s="1">
-        <v>-361.331000</v>
+        <v>-361.33100000000002</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>6445.132772</v>
+        <v>6445.1327719999999</v>
       </c>
       <c r="BO15" s="1">
-        <v>1.790315</v>
+        <v>1.7903150000000001</v>
       </c>
       <c r="BP15" s="1">
-        <v>1258.160000</v>
+        <v>1258.1600000000001</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-571.199000</v>
+        <v>-571.19899999999996</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>6456.039301</v>
+        <v>6456.0393009999998</v>
       </c>
       <c r="BT15" s="1">
         <v>1.793344</v>
       </c>
       <c r="BU15" s="1">
-        <v>1404.630000</v>
+        <v>1404.63</v>
       </c>
       <c r="BV15" s="1">
-        <v>-795.572000</v>
+        <v>-795.572</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>6467.288037</v>
+        <v>6467.2880370000003</v>
       </c>
       <c r="BY15" s="1">
-        <v>1.796469</v>
+        <v>1.7964690000000001</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1566.540000</v>
+        <v>1566.54</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1029.150000</v>
+        <v>-1029.1500000000001</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>6479.444517</v>
+        <v>6479.4445169999999</v>
       </c>
       <c r="CD15" s="1">
-        <v>1.799846</v>
+        <v>1.7998460000000001</v>
       </c>
       <c r="CE15" s="1">
-        <v>1974.000000</v>
+        <v>1974</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1573.610000</v>
+        <v>-1573.61</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>6308.379795</v>
+        <v>6308.3797949999998</v>
       </c>
       <c r="B16" s="1">
-        <v>1.752328</v>
+        <v>1.7523280000000001</v>
       </c>
       <c r="C16" s="1">
-        <v>903.767000</v>
+        <v>903.76700000000005</v>
       </c>
       <c r="D16" s="1">
-        <v>-195.453000</v>
+        <v>-195.453</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>6318.437642</v>
+        <v>6318.4376419999999</v>
       </c>
       <c r="G16" s="1">
-        <v>1.755122</v>
+        <v>1.7551220000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>920.752000</v>
+        <v>920.75199999999995</v>
       </c>
       <c r="I16" s="1">
-        <v>-165.555000</v>
+        <v>-165.55500000000001</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>6328.570414</v>
+        <v>6328.5704139999998</v>
       </c>
       <c r="L16" s="1">
-        <v>1.757936</v>
+        <v>1.7579359999999999</v>
       </c>
       <c r="M16" s="1">
-        <v>942.499000</v>
+        <v>942.49900000000002</v>
       </c>
       <c r="N16" s="1">
-        <v>-118.220000</v>
+        <v>-118.22</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>6339.093534</v>
+        <v>6339.0935339999996</v>
       </c>
       <c r="Q16" s="1">
         <v>1.760859</v>
       </c>
       <c r="R16" s="1">
-        <v>948.772000</v>
+        <v>948.77200000000005</v>
       </c>
       <c r="S16" s="1">
-        <v>-103.023000</v>
+        <v>-103.023</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>6349.609249</v>
+        <v>6349.6092490000001</v>
       </c>
       <c r="V16" s="1">
-        <v>1.763780</v>
+        <v>1.7637799999999999</v>
       </c>
       <c r="W16" s="1">
-        <v>954.975000</v>
+        <v>954.97500000000002</v>
       </c>
       <c r="X16" s="1">
-        <v>-89.347300</v>
+        <v>-89.347300000000004</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
         <v>6360.114482</v>
       </c>
       <c r="AA16" s="1">
-        <v>1.766698</v>
+        <v>1.7666980000000001</v>
       </c>
       <c r="AB16" s="1">
-        <v>962.123000</v>
+        <v>962.12300000000005</v>
       </c>
       <c r="AC16" s="1">
-        <v>-79.948700</v>
+        <v>-79.948700000000002</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>6370.593993</v>
+        <v>6370.5939930000004</v>
       </c>
       <c r="AF16" s="1">
         <v>1.769609</v>
       </c>
       <c r="AG16" s="1">
-        <v>967.057000</v>
+        <v>967.05700000000002</v>
       </c>
       <c r="AH16" s="1">
-        <v>-79.396000</v>
+        <v>-79.396000000000001</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>6381.132855</v>
+        <v>6381.1328549999998</v>
       </c>
       <c r="AK16" s="1">
         <v>1.772537</v>
       </c>
       <c r="AL16" s="1">
-        <v>974.920000</v>
+        <v>974.92</v>
       </c>
       <c r="AM16" s="1">
-        <v>-87.027900</v>
+        <v>-87.027900000000002</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>6391.544505</v>
+        <v>6391.5445049999998</v>
       </c>
       <c r="AP16" s="1">
-        <v>1.775429</v>
+        <v>1.7754289999999999</v>
       </c>
       <c r="AQ16" s="1">
-        <v>984.011000</v>
+        <v>984.01099999999997</v>
       </c>
       <c r="AR16" s="1">
-        <v>-101.782000</v>
+        <v>-101.782</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>6402.570571</v>
+        <v>6402.5705710000002</v>
       </c>
       <c r="AU16" s="1">
         <v>1.778492</v>
       </c>
       <c r="AV16" s="1">
-        <v>995.307000</v>
+        <v>995.30700000000002</v>
       </c>
       <c r="AW16" s="1">
-        <v>-123.093000</v>
+        <v>-123.093</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>6413.506860</v>
+        <v>6413.5068600000004</v>
       </c>
       <c r="AZ16" s="1">
-        <v>1.781530</v>
+        <v>1.7815300000000001</v>
       </c>
       <c r="BA16" s="1">
-        <v>1004.800000</v>
+        <v>1004.8</v>
       </c>
       <c r="BB16" s="1">
-        <v>-141.664000</v>
+        <v>-141.66399999999999</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>6424.638542</v>
+        <v>6424.6385419999997</v>
       </c>
       <c r="BE16" s="1">
-        <v>1.784622</v>
+        <v>1.7846219999999999</v>
       </c>
       <c r="BF16" s="1">
-        <v>1049.440000</v>
+        <v>1049.44</v>
       </c>
       <c r="BG16" s="1">
-        <v>-225.840000</v>
+        <v>-225.84</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>6435.147809</v>
+        <v>6435.1478090000001</v>
       </c>
       <c r="BJ16" s="1">
         <v>1.787541</v>
       </c>
       <c r="BK16" s="1">
-        <v>1127.830000</v>
+        <v>1127.83</v>
       </c>
       <c r="BL16" s="1">
-        <v>-361.358000</v>
+        <v>-361.358</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>6445.555826</v>
+        <v>6445.5558259999998</v>
       </c>
       <c r="BO16" s="1">
         <v>1.790432</v>
       </c>
       <c r="BP16" s="1">
-        <v>1258.150000</v>
+        <v>1258.1500000000001</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-571.208000</v>
+        <v>-571.20799999999997</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>6456.454419</v>
+        <v>6456.4544189999997</v>
       </c>
       <c r="BT16" s="1">
-        <v>1.793460</v>
+        <v>1.7934600000000001</v>
       </c>
       <c r="BU16" s="1">
-        <v>1404.680000</v>
+        <v>1404.68</v>
       </c>
       <c r="BV16" s="1">
-        <v>-795.350000</v>
+        <v>-795.35</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>6467.711124</v>
+        <v>6467.7111240000004</v>
       </c>
       <c r="BY16" s="1">
         <v>1.796586</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1566.400000</v>
+        <v>1566.4</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1029.160000</v>
+        <v>-1029.1600000000001</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>6479.976198</v>
+        <v>6479.9761980000003</v>
       </c>
       <c r="CD16" s="1">
         <v>1.799993</v>
       </c>
       <c r="CE16" s="1">
-        <v>1974.080000</v>
+        <v>1974.08</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1575.060000</v>
+        <v>-1575.06</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>6308.719558</v>
+        <v>6308.7195579999998</v>
       </c>
       <c r="B17" s="1">
-        <v>1.752422</v>
+        <v>1.7524219999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>904.029000</v>
+        <v>904.029</v>
       </c>
       <c r="D17" s="1">
-        <v>-195.435000</v>
+        <v>-195.435</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>6318.784841</v>
+        <v>6318.7848409999997</v>
       </c>
       <c r="G17" s="1">
-        <v>1.755218</v>
+        <v>1.7552179999999999</v>
       </c>
       <c r="H17" s="1">
-        <v>920.717000</v>
+        <v>920.71699999999998</v>
       </c>
       <c r="I17" s="1">
-        <v>-165.734000</v>
+        <v>-165.73400000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>6328.913148</v>
+        <v>6328.9131479999996</v>
       </c>
       <c r="L17" s="1">
-        <v>1.758031</v>
+        <v>1.7580309999999999</v>
       </c>
       <c r="M17" s="1">
-        <v>942.334000</v>
+        <v>942.33399999999995</v>
       </c>
       <c r="N17" s="1">
-        <v>-118.382000</v>
+        <v>-118.38200000000001</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>6339.788927</v>
+        <v>6339.7889269999996</v>
       </c>
       <c r="Q17" s="1">
-        <v>1.761052</v>
+        <v>1.7610520000000001</v>
       </c>
       <c r="R17" s="1">
-        <v>948.781000</v>
+        <v>948.78099999999995</v>
       </c>
       <c r="S17" s="1">
-        <v>-103.064000</v>
+        <v>-103.06399999999999</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>6349.951952</v>
+        <v>6349.9519520000003</v>
       </c>
       <c r="V17" s="1">
         <v>1.763876</v>
       </c>
       <c r="W17" s="1">
-        <v>955.062000</v>
+        <v>955.06200000000001</v>
       </c>
       <c r="X17" s="1">
-        <v>-89.336300</v>
+        <v>-89.336299999999994</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>6360.461186</v>
+        <v>6360.4611860000005</v>
       </c>
       <c r="AA17" s="1">
-        <v>1.766795</v>
+        <v>1.7667949999999999</v>
       </c>
       <c r="AB17" s="1">
-        <v>962.183000</v>
+        <v>962.18299999999999</v>
       </c>
       <c r="AC17" s="1">
-        <v>-79.830200</v>
+        <v>-79.830200000000005</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>6370.937685</v>
+        <v>6370.9376849999999</v>
       </c>
       <c r="AF17" s="1">
-        <v>1.769705</v>
+        <v>1.7697050000000001</v>
       </c>
       <c r="AG17" s="1">
-        <v>967.048000</v>
+        <v>967.048</v>
       </c>
       <c r="AH17" s="1">
-        <v>-79.392800</v>
+        <v>-79.392799999999994</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>6381.786715</v>
+        <v>6381.7867150000002</v>
       </c>
       <c r="AK17" s="1">
-        <v>1.772719</v>
+        <v>1.7727189999999999</v>
       </c>
       <c r="AL17" s="1">
-        <v>974.904000</v>
+        <v>974.904</v>
       </c>
       <c r="AM17" s="1">
-        <v>-87.022800</v>
+        <v>-87.022800000000004</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>6392.199688</v>
+        <v>6392.1996879999997</v>
       </c>
       <c r="AP17" s="1">
-        <v>1.775611</v>
+        <v>1.7756110000000001</v>
       </c>
       <c r="AQ17" s="1">
-        <v>984.043000</v>
+        <v>984.04300000000001</v>
       </c>
       <c r="AR17" s="1">
-        <v>-101.794000</v>
+        <v>-101.794</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>6402.989162</v>
+        <v>6402.9891619999999</v>
       </c>
       <c r="AU17" s="1">
         <v>1.778608</v>
       </c>
       <c r="AV17" s="1">
-        <v>995.287000</v>
+        <v>995.28700000000003</v>
       </c>
       <c r="AW17" s="1">
-        <v>-123.115000</v>
+        <v>-123.11499999999999</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>6413.966124</v>
+        <v>6413.9661239999996</v>
       </c>
       <c r="AZ17" s="1">
         <v>1.781657</v>
       </c>
       <c r="BA17" s="1">
-        <v>1004.810000</v>
+        <v>1004.81</v>
       </c>
       <c r="BB17" s="1">
-        <v>-141.656000</v>
+        <v>-141.65600000000001</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>6424.999134</v>
+        <v>6424.9991339999997</v>
       </c>
       <c r="BE17" s="1">
-        <v>1.784722</v>
+        <v>1.7847219999999999</v>
       </c>
       <c r="BF17" s="1">
-        <v>1049.440000</v>
+        <v>1049.44</v>
       </c>
       <c r="BG17" s="1">
-        <v>-225.822000</v>
+        <v>-225.822</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>6435.523280</v>
+        <v>6435.5232800000003</v>
       </c>
       <c r="BJ17" s="1">
-        <v>1.787645</v>
+        <v>1.7876449999999999</v>
       </c>
       <c r="BK17" s="1">
-        <v>1127.840000</v>
+        <v>1127.8399999999999</v>
       </c>
       <c r="BL17" s="1">
-        <v>-361.345000</v>
+        <v>-361.34500000000003</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>6445.953618</v>
+        <v>6445.9536179999996</v>
       </c>
       <c r="BO17" s="1">
         <v>1.790543</v>
       </c>
       <c r="BP17" s="1">
-        <v>1258.140000</v>
+        <v>1258.1400000000001</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-571.191000</v>
+        <v>-571.19100000000003</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>6456.883987</v>
+        <v>6456.8839870000002</v>
       </c>
       <c r="BT17" s="1">
         <v>1.793579</v>
       </c>
       <c r="BU17" s="1">
-        <v>1404.620000</v>
+        <v>1404.62</v>
       </c>
       <c r="BV17" s="1">
-        <v>-795.199000</v>
+        <v>-795.19899999999996</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>6468.132227</v>
+        <v>6468.1322270000001</v>
       </c>
       <c r="BY17" s="1">
-        <v>1.796703</v>
+        <v>1.7967029999999999</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1566.590000</v>
+        <v>1566.59</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1029.220000</v>
+        <v>-1029.22</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>6480.497492</v>
+        <v>6480.4974920000004</v>
       </c>
       <c r="CD17" s="1">
         <v>1.800138</v>
       </c>
       <c r="CE17" s="1">
-        <v>1974.050000</v>
+        <v>1974.05</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1574.250000</v>
+        <v>-1574.25</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>6309.063281</v>
+        <v>6309.0632809999997</v>
       </c>
       <c r="B18" s="1">
         <v>1.752518</v>
       </c>
       <c r="C18" s="1">
-        <v>903.796000</v>
+        <v>903.79600000000005</v>
       </c>
       <c r="D18" s="1">
-        <v>-195.486000</v>
+        <v>-195.48599999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>6319.477789</v>
+        <v>6319.4777889999996</v>
       </c>
       <c r="G18" s="1">
-        <v>1.755410</v>
+        <v>1.7554099999999999</v>
       </c>
       <c r="H18" s="1">
-        <v>920.605000</v>
+        <v>920.60500000000002</v>
       </c>
       <c r="I18" s="1">
-        <v>-165.793000</v>
+        <v>-165.79300000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
         <v>6329.602594</v>
       </c>
       <c r="L18" s="1">
-        <v>1.758223</v>
+        <v>1.7582230000000001</v>
       </c>
       <c r="M18" s="1">
-        <v>942.386000</v>
+        <v>942.38599999999997</v>
       </c>
       <c r="N18" s="1">
-        <v>-118.243000</v>
+        <v>-118.24299999999999</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>6340.137615</v>
+        <v>6340.1376149999996</v>
       </c>
       <c r="Q18" s="1">
-        <v>1.761149</v>
+        <v>1.7611490000000001</v>
       </c>
       <c r="R18" s="1">
-        <v>948.745000</v>
+        <v>948.745</v>
       </c>
       <c r="S18" s="1">
-        <v>-103.114000</v>
+        <v>-103.114</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>6350.296209</v>
+        <v>6350.2962090000001</v>
       </c>
       <c r="V18" s="1">
         <v>1.763971</v>
       </c>
       <c r="W18" s="1">
-        <v>955.033000</v>
+        <v>955.03300000000002</v>
       </c>
       <c r="X18" s="1">
-        <v>-89.324300</v>
+        <v>-89.324299999999994</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>6360.809379</v>
+        <v>6360.8093790000003</v>
       </c>
       <c r="AA18" s="1">
         <v>1.766891</v>
       </c>
       <c r="AB18" s="1">
-        <v>962.097000</v>
+        <v>962.09699999999998</v>
       </c>
       <c r="AC18" s="1">
-        <v>-79.817200</v>
+        <v>-79.8172</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>6371.587940</v>
+        <v>6371.5879400000003</v>
       </c>
       <c r="AF18" s="1">
-        <v>1.769886</v>
+        <v>1.7698860000000001</v>
       </c>
       <c r="AG18" s="1">
-        <v>967.039000</v>
+        <v>967.03899999999999</v>
       </c>
       <c r="AH18" s="1">
-        <v>-79.422900</v>
+        <v>-79.422899999999998</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>6382.176567</v>
+        <v>6382.1765670000004</v>
       </c>
       <c r="AK18" s="1">
-        <v>1.772827</v>
+        <v>1.7728269999999999</v>
       </c>
       <c r="AL18" s="1">
-        <v>974.916000</v>
+        <v>974.91600000000005</v>
       </c>
       <c r="AM18" s="1">
-        <v>-87.058000</v>
+        <v>-87.058000000000007</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>6392.655543</v>
+        <v>6392.6555429999999</v>
       </c>
       <c r="AP18" s="1">
         <v>1.775738</v>
       </c>
       <c r="AQ18" s="1">
-        <v>984.008000</v>
+        <v>984.00800000000004</v>
       </c>
       <c r="AR18" s="1">
-        <v>-101.793000</v>
+        <v>-101.79300000000001</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>6403.351243</v>
+        <v>6403.3512430000001</v>
       </c>
       <c r="AU18" s="1">
-        <v>1.778709</v>
+        <v>1.7787090000000001</v>
       </c>
       <c r="AV18" s="1">
-        <v>995.281000</v>
+        <v>995.28099999999995</v>
       </c>
       <c r="AW18" s="1">
-        <v>-123.108000</v>
+        <v>-123.108</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>6414.325227</v>
+        <v>6414.3252270000003</v>
       </c>
       <c r="AZ18" s="1">
         <v>1.781757</v>
       </c>
       <c r="BA18" s="1">
-        <v>1004.800000</v>
+        <v>1004.8</v>
       </c>
       <c r="BB18" s="1">
-        <v>-141.663000</v>
+        <v>-141.66300000000001</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
         <v>6425.362306</v>
@@ -4758,120 +5174,120 @@
         <v>1.784823</v>
       </c>
       <c r="BF18" s="1">
-        <v>1049.450000</v>
+        <v>1049.45</v>
       </c>
       <c r="BG18" s="1">
-        <v>-225.822000</v>
+        <v>-225.822</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>6435.935918</v>
+        <v>6435.9359180000001</v>
       </c>
       <c r="BJ18" s="1">
-        <v>1.787760</v>
+        <v>1.78776</v>
       </c>
       <c r="BK18" s="1">
-        <v>1127.810000</v>
+        <v>1127.81</v>
       </c>
       <c r="BL18" s="1">
-        <v>-361.333000</v>
+        <v>-361.33300000000003</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>6446.378193</v>
+        <v>6446.3781929999996</v>
       </c>
       <c r="BO18" s="1">
-        <v>1.790661</v>
+        <v>1.7906610000000001</v>
       </c>
       <c r="BP18" s="1">
-        <v>1258.130000</v>
+        <v>1258.1300000000001</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-571.234000</v>
+        <v>-571.23400000000004</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>6457.312995</v>
+        <v>6457.3129950000002</v>
       </c>
       <c r="BT18" s="1">
         <v>1.793698</v>
       </c>
       <c r="BU18" s="1">
-        <v>1404.780000</v>
+        <v>1404.78</v>
       </c>
       <c r="BV18" s="1">
-        <v>-795.109000</v>
+        <v>-795.10900000000004</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>6468.560771</v>
+        <v>6468.5607710000004</v>
       </c>
       <c r="BY18" s="1">
-        <v>1.796822</v>
+        <v>1.7968219999999999</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1566.610000</v>
+        <v>1566.61</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1029.000000</v>
+        <v>-1029</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>6481.048547</v>
+        <v>6481.0485470000003</v>
       </c>
       <c r="CD18" s="1">
-        <v>1.800291</v>
+        <v>1.8002910000000001</v>
       </c>
       <c r="CE18" s="1">
-        <v>1974.700000</v>
+        <v>1974.7</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1573.580000</v>
+        <v>-1573.58</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>6309.746246</v>
+        <v>6309.7462459999997</v>
       </c>
       <c r="B19" s="1">
         <v>1.752707</v>
       </c>
       <c r="C19" s="1">
-        <v>903.900000</v>
+        <v>903.9</v>
       </c>
       <c r="D19" s="1">
-        <v>-195.300000</v>
+        <v>-195.3</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>6319.825944</v>
+        <v>6319.8259440000002</v>
       </c>
       <c r="G19" s="1">
-        <v>1.755507</v>
+        <v>1.7555069999999999</v>
       </c>
       <c r="H19" s="1">
-        <v>920.773000</v>
+        <v>920.77300000000002</v>
       </c>
       <c r="I19" s="1">
-        <v>-165.411000</v>
+        <v>-165.411</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
         <v>6329.947803</v>
@@ -4880,465 +5296,465 @@
         <v>1.758319</v>
       </c>
       <c r="M19" s="1">
-        <v>942.310000</v>
+        <v>942.31</v>
       </c>
       <c r="N19" s="1">
-        <v>-118.116000</v>
+        <v>-118.116</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>6340.488285</v>
+        <v>6340.4882850000004</v>
       </c>
       <c r="Q19" s="1">
         <v>1.761247</v>
       </c>
       <c r="R19" s="1">
-        <v>948.737000</v>
+        <v>948.73699999999997</v>
       </c>
       <c r="S19" s="1">
-        <v>-103.097000</v>
+        <v>-103.09699999999999</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>6350.944447</v>
+        <v>6350.9444469999999</v>
       </c>
       <c r="V19" s="1">
         <v>1.764151</v>
       </c>
       <c r="W19" s="1">
-        <v>955.104000</v>
+        <v>955.10400000000004</v>
       </c>
       <c r="X19" s="1">
-        <v>-89.349200</v>
+        <v>-89.349199999999996</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
         <v>6361.464594</v>
       </c>
       <c r="AA19" s="1">
-        <v>1.767073</v>
+        <v>1.7670729999999999</v>
       </c>
       <c r="AB19" s="1">
-        <v>962.106000</v>
+        <v>962.10599999999999</v>
       </c>
       <c r="AC19" s="1">
-        <v>-79.883000</v>
+        <v>-79.882999999999996</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>6371.968868</v>
+        <v>6371.9688679999999</v>
       </c>
       <c r="AF19" s="1">
-        <v>1.769991</v>
+        <v>1.7699910000000001</v>
       </c>
       <c r="AG19" s="1">
-        <v>967.048000</v>
+        <v>967.048</v>
       </c>
       <c r="AH19" s="1">
-        <v>-79.398200</v>
+        <v>-79.398200000000003</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>6382.524761</v>
+        <v>6382.5247609999997</v>
       </c>
       <c r="AK19" s="1">
-        <v>1.772924</v>
+        <v>1.7729239999999999</v>
       </c>
       <c r="AL19" s="1">
-        <v>974.917000</v>
+        <v>974.91700000000003</v>
       </c>
       <c r="AM19" s="1">
-        <v>-87.021900</v>
+        <v>-87.021900000000002</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>6393.015607</v>
+        <v>6393.0156070000003</v>
       </c>
       <c r="AP19" s="1">
         <v>1.775838</v>
       </c>
       <c r="AQ19" s="1">
-        <v>984.042000</v>
+        <v>984.04200000000003</v>
       </c>
       <c r="AR19" s="1">
-        <v>-101.789000</v>
+        <v>-101.789</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>6403.717322</v>
+        <v>6403.7173220000004</v>
       </c>
       <c r="AU19" s="1">
-        <v>1.778810</v>
+        <v>1.77881</v>
       </c>
       <c r="AV19" s="1">
-        <v>995.291000</v>
+        <v>995.29100000000005</v>
       </c>
       <c r="AW19" s="1">
-        <v>-123.125000</v>
+        <v>-123.125</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>6414.680055</v>
+        <v>6414.6800549999998</v>
       </c>
       <c r="AZ19" s="1">
-        <v>1.781856</v>
+        <v>1.7818560000000001</v>
       </c>
       <c r="BA19" s="1">
-        <v>1004.780000</v>
+        <v>1004.78</v>
       </c>
       <c r="BB19" s="1">
-        <v>-141.669000</v>
+        <v>-141.66900000000001</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>6425.782348</v>
+        <v>6425.7823479999997</v>
       </c>
       <c r="BE19" s="1">
-        <v>1.784940</v>
+        <v>1.78494</v>
       </c>
       <c r="BF19" s="1">
-        <v>1049.460000</v>
+        <v>1049.46</v>
       </c>
       <c r="BG19" s="1">
-        <v>-225.811000</v>
+        <v>-225.81100000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>6436.294030</v>
+        <v>6436.29403</v>
       </c>
       <c r="BJ19" s="1">
-        <v>1.787859</v>
+        <v>1.7878590000000001</v>
       </c>
       <c r="BK19" s="1">
-        <v>1127.820000</v>
+        <v>1127.82</v>
       </c>
       <c r="BL19" s="1">
-        <v>-361.339000</v>
+        <v>-361.339</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>6446.774528</v>
+        <v>6446.7745279999999</v>
       </c>
       <c r="BO19" s="1">
-        <v>1.790771</v>
+        <v>1.7907709999999999</v>
       </c>
       <c r="BP19" s="1">
-        <v>1258.100000</v>
+        <v>1258.0999999999999</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-571.210000</v>
+        <v>-571.21</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>6457.726340</v>
+        <v>6457.7263400000002</v>
       </c>
       <c r="BT19" s="1">
-        <v>1.793813</v>
+        <v>1.7938130000000001</v>
       </c>
       <c r="BU19" s="1">
-        <v>1404.940000</v>
+        <v>1404.94</v>
       </c>
       <c r="BV19" s="1">
-        <v>-794.961000</v>
+        <v>-794.96100000000001</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>6468.976915</v>
+        <v>6468.9769150000002</v>
       </c>
       <c r="BY19" s="1">
-        <v>1.796938</v>
+        <v>1.7969379999999999</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1566.470000</v>
+        <v>1566.47</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1029.050000</v>
+        <v>-1029.05</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>6481.576818</v>
+        <v>6481.5768179999995</v>
       </c>
       <c r="CD19" s="1">
         <v>1.800438</v>
       </c>
       <c r="CE19" s="1">
-        <v>1973.960000</v>
+        <v>1973.96</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1574.930000</v>
+        <v>-1574.93</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>6310.086502</v>
+        <v>6310.0865020000001</v>
       </c>
       <c r="B20" s="1">
         <v>1.752802</v>
       </c>
       <c r="C20" s="1">
-        <v>903.901000</v>
+        <v>903.90099999999995</v>
       </c>
       <c r="D20" s="1">
-        <v>-195.497000</v>
+        <v>-195.49700000000001</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>6320.168679</v>
+        <v>6320.1686790000003</v>
       </c>
       <c r="G20" s="1">
-        <v>1.755602</v>
+        <v>1.7556020000000001</v>
       </c>
       <c r="H20" s="1">
-        <v>920.780000</v>
+        <v>920.78</v>
       </c>
       <c r="I20" s="1">
-        <v>-165.669000</v>
+        <v>-165.66900000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>6330.600043</v>
+        <v>6330.6000430000004</v>
       </c>
       <c r="L20" s="1">
-        <v>1.758500</v>
+        <v>1.7585</v>
       </c>
       <c r="M20" s="1">
-        <v>942.326000</v>
+        <v>942.32600000000002</v>
       </c>
       <c r="N20" s="1">
-        <v>-118.305000</v>
+        <v>-118.30500000000001</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>6341.137053</v>
+        <v>6341.1370530000004</v>
       </c>
       <c r="Q20" s="1">
-        <v>1.761427</v>
+        <v>1.7614270000000001</v>
       </c>
       <c r="R20" s="1">
-        <v>948.737000</v>
+        <v>948.73699999999997</v>
       </c>
       <c r="S20" s="1">
-        <v>-103.052000</v>
+        <v>-103.05200000000001</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>6351.326366</v>
+        <v>6351.3263660000002</v>
       </c>
       <c r="V20" s="1">
         <v>1.764257</v>
       </c>
       <c r="W20" s="1">
-        <v>954.944000</v>
+        <v>954.94399999999996</v>
       </c>
       <c r="X20" s="1">
-        <v>-89.368900</v>
+        <v>-89.368899999999996</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>6361.855936</v>
+        <v>6361.8559359999999</v>
       </c>
       <c r="AA20" s="1">
         <v>1.767182</v>
       </c>
       <c r="AB20" s="1">
-        <v>962.105000</v>
+        <v>962.10500000000002</v>
       </c>
       <c r="AC20" s="1">
-        <v>-79.951600</v>
+        <v>-79.951599999999999</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>6372.310612</v>
+        <v>6372.3106120000002</v>
       </c>
       <c r="AF20" s="1">
         <v>1.770086</v>
       </c>
       <c r="AG20" s="1">
-        <v>967.059000</v>
+        <v>967.05899999999997</v>
       </c>
       <c r="AH20" s="1">
-        <v>-79.397200</v>
+        <v>-79.397199999999998</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>6382.874437</v>
+        <v>6382.8744370000004</v>
       </c>
       <c r="AK20" s="1">
         <v>1.773021</v>
       </c>
       <c r="AL20" s="1">
-        <v>974.929000</v>
+        <v>974.92899999999997</v>
       </c>
       <c r="AM20" s="1">
-        <v>-87.045000</v>
+        <v>-87.045000000000002</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>6393.375703</v>
+        <v>6393.3757029999997</v>
       </c>
       <c r="AP20" s="1">
         <v>1.775938</v>
       </c>
       <c r="AQ20" s="1">
-        <v>984.010000</v>
+        <v>984.01</v>
       </c>
       <c r="AR20" s="1">
-        <v>-101.787000</v>
+        <v>-101.78700000000001</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>6404.131001</v>
+        <v>6404.1310009999997</v>
       </c>
       <c r="AU20" s="1">
-        <v>1.778925</v>
+        <v>1.7789250000000001</v>
       </c>
       <c r="AV20" s="1">
-        <v>995.281000</v>
+        <v>995.28099999999995</v>
       </c>
       <c r="AW20" s="1">
-        <v>-123.109000</v>
+        <v>-123.10899999999999</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>6415.090564</v>
+        <v>6415.0905640000001</v>
       </c>
       <c r="AZ20" s="1">
-        <v>1.781970</v>
+        <v>1.7819700000000001</v>
       </c>
       <c r="BA20" s="1">
-        <v>1004.800000</v>
+        <v>1004.8</v>
       </c>
       <c r="BB20" s="1">
-        <v>-141.637000</v>
+        <v>-141.637</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>6426.080909</v>
+        <v>6426.0809090000002</v>
       </c>
       <c r="BE20" s="1">
-        <v>1.785022</v>
+        <v>1.7850220000000001</v>
       </c>
       <c r="BF20" s="1">
-        <v>1049.460000</v>
+        <v>1049.46</v>
       </c>
       <c r="BG20" s="1">
-        <v>-225.824000</v>
+        <v>-225.82400000000001</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>6436.669502</v>
+        <v>6436.6695019999997</v>
       </c>
       <c r="BJ20" s="1">
-        <v>1.787964</v>
+        <v>1.7879640000000001</v>
       </c>
       <c r="BK20" s="1">
-        <v>1127.860000</v>
+        <v>1127.8599999999999</v>
       </c>
       <c r="BL20" s="1">
-        <v>-361.307000</v>
+        <v>-361.30700000000002</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>6447.198575</v>
+        <v>6447.1985750000003</v>
       </c>
       <c r="BO20" s="1">
         <v>1.790888</v>
       </c>
       <c r="BP20" s="1">
-        <v>1258.140000</v>
+        <v>1258.1400000000001</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-571.185000</v>
+        <v>-571.18499999999995</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>6458.158675</v>
+        <v>6458.1586749999997</v>
       </c>
       <c r="BT20" s="1">
         <v>1.793933</v>
       </c>
       <c r="BU20" s="1">
-        <v>1405.130000</v>
+        <v>1405.13</v>
       </c>
       <c r="BV20" s="1">
-        <v>-795.073000</v>
+        <v>-795.07299999999998</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>6469.424306</v>
+        <v>6469.4243059999999</v>
       </c>
       <c r="BY20" s="1">
-        <v>1.797062</v>
+        <v>1.7970619999999999</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1566.370000</v>
+        <v>1566.37</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1029.180000</v>
+        <v>-1029.18</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
         <v>6482.099569</v>
@@ -5347,392 +5763,392 @@
         <v>1.800583</v>
       </c>
       <c r="CE20" s="1">
-        <v>1975.980000</v>
+        <v>1975.98</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1574.200000</v>
+        <v>-1574.2</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>6310.430229</v>
+        <v>6310.4302289999996</v>
       </c>
       <c r="B21" s="1">
-        <v>1.752897</v>
+        <v>1.7528969999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>903.884000</v>
+        <v>903.88400000000001</v>
       </c>
       <c r="D21" s="1">
-        <v>-195.377000</v>
+        <v>-195.37700000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>6320.819959</v>
+        <v>6320.8199590000004</v>
       </c>
       <c r="G21" s="1">
-        <v>1.755783</v>
+        <v>1.7557830000000001</v>
       </c>
       <c r="H21" s="1">
-        <v>920.323000</v>
+        <v>920.32299999999998</v>
       </c>
       <c r="I21" s="1">
-        <v>-165.363000</v>
+        <v>-165.363</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>6330.986425</v>
+        <v>6330.9864250000001</v>
       </c>
       <c r="L21" s="1">
         <v>1.758607</v>
       </c>
       <c r="M21" s="1">
-        <v>942.392000</v>
+        <v>942.39200000000005</v>
       </c>
       <c r="N21" s="1">
-        <v>-118.420000</v>
+        <v>-118.42</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>6341.521947</v>
+        <v>6341.5219470000002</v>
       </c>
       <c r="Q21" s="1">
-        <v>1.761534</v>
+        <v>1.7615339999999999</v>
       </c>
       <c r="R21" s="1">
-        <v>948.758000</v>
+        <v>948.75800000000004</v>
       </c>
       <c r="S21" s="1">
-        <v>-103.017000</v>
+        <v>-103.017</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>6351.671123</v>
+        <v>6351.6711230000001</v>
       </c>
       <c r="V21" s="1">
-        <v>1.764353</v>
+        <v>1.7643530000000001</v>
       </c>
       <c r="W21" s="1">
-        <v>954.961000</v>
+        <v>954.96100000000001</v>
       </c>
       <c r="X21" s="1">
-        <v>-89.397800</v>
+        <v>-89.397800000000004</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>6362.206112</v>
+        <v>6362.2061119999998</v>
       </c>
       <c r="AA21" s="1">
         <v>1.767279</v>
       </c>
       <c r="AB21" s="1">
-        <v>962.136000</v>
+        <v>962.13599999999997</v>
       </c>
       <c r="AC21" s="1">
-        <v>-79.951600</v>
+        <v>-79.951599999999999</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>6372.656819</v>
+        <v>6372.6568189999998</v>
       </c>
       <c r="AF21" s="1">
-        <v>1.770182</v>
+        <v>1.7701819999999999</v>
       </c>
       <c r="AG21" s="1">
-        <v>967.046000</v>
+        <v>967.04600000000005</v>
       </c>
       <c r="AH21" s="1">
-        <v>-79.377200</v>
+        <v>-79.377200000000002</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>6383.289060</v>
+        <v>6383.2890600000001</v>
       </c>
       <c r="AK21" s="1">
         <v>1.773136</v>
       </c>
       <c r="AL21" s="1">
-        <v>974.911000</v>
+        <v>974.91099999999994</v>
       </c>
       <c r="AM21" s="1">
-        <v>-87.022500</v>
+        <v>-87.022499999999994</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>6393.801271</v>
+        <v>6393.8012710000003</v>
       </c>
       <c r="AP21" s="1">
-        <v>1.776056</v>
+        <v>1.7760560000000001</v>
       </c>
       <c r="AQ21" s="1">
-        <v>984.012000</v>
+        <v>984.01199999999994</v>
       </c>
       <c r="AR21" s="1">
-        <v>-101.804000</v>
+        <v>-101.804</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>6404.445945</v>
+        <v>6404.4459450000004</v>
       </c>
       <c r="AU21" s="1">
         <v>1.779013</v>
       </c>
       <c r="AV21" s="1">
-        <v>995.303000</v>
+        <v>995.303</v>
       </c>
       <c r="AW21" s="1">
-        <v>-123.110000</v>
+        <v>-123.11</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>6415.397081</v>
+        <v>6415.3970810000001</v>
       </c>
       <c r="AZ21" s="1">
-        <v>1.782055</v>
+        <v>1.7820549999999999</v>
       </c>
       <c r="BA21" s="1">
-        <v>1004.790000</v>
+        <v>1004.79</v>
       </c>
       <c r="BB21" s="1">
-        <v>-141.652000</v>
+        <v>-141.65199999999999</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>6426.445714</v>
+        <v>6426.4457140000004</v>
       </c>
       <c r="BE21" s="1">
-        <v>1.785124</v>
+        <v>1.7851239999999999</v>
       </c>
       <c r="BF21" s="1">
-        <v>1049.440000</v>
+        <v>1049.44</v>
       </c>
       <c r="BG21" s="1">
-        <v>-225.808000</v>
+        <v>-225.80799999999999</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>6437.044627</v>
+        <v>6437.0446270000002</v>
       </c>
       <c r="BJ21" s="1">
         <v>1.788068</v>
       </c>
       <c r="BK21" s="1">
-        <v>1127.850000</v>
+        <v>1127.8499999999999</v>
       </c>
       <c r="BL21" s="1">
-        <v>-361.324000</v>
+        <v>-361.32400000000001</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>6447.595376</v>
+        <v>6447.5953760000002</v>
       </c>
       <c r="BO21" s="1">
         <v>1.790999</v>
       </c>
       <c r="BP21" s="1">
-        <v>1258.130000</v>
+        <v>1258.1300000000001</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-571.186000</v>
+        <v>-571.18600000000004</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>6458.585729</v>
+        <v>6458.5857290000004</v>
       </c>
       <c r="BT21" s="1">
         <v>1.794052</v>
       </c>
       <c r="BU21" s="1">
-        <v>1405.330000</v>
+        <v>1405.33</v>
       </c>
       <c r="BV21" s="1">
-        <v>-795.083000</v>
+        <v>-795.08299999999997</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>6469.846401</v>
+        <v>6469.8464009999998</v>
       </c>
       <c r="BY21" s="1">
-        <v>1.797180</v>
+        <v>1.79718</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1566.510000</v>
+        <v>1566.51</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1029.140000</v>
+        <v>-1029.1400000000001</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>6482.633265</v>
+        <v>6482.6332650000004</v>
       </c>
       <c r="CD21" s="1">
-        <v>1.800731</v>
+        <v>1.8007310000000001</v>
       </c>
       <c r="CE21" s="1">
-        <v>1974.300000</v>
+        <v>1974.3</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1573.670000</v>
+        <v>-1573.67</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>6311.085481</v>
+        <v>6311.0854810000001</v>
       </c>
       <c r="B22" s="1">
-        <v>1.753079</v>
+        <v>1.7530790000000001</v>
       </c>
       <c r="C22" s="1">
-        <v>903.950000</v>
+        <v>903.95</v>
       </c>
       <c r="D22" s="1">
-        <v>-195.366000</v>
+        <v>-195.36600000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>6321.203856</v>
+        <v>6321.2038560000001</v>
       </c>
       <c r="G22" s="1">
-        <v>1.755890</v>
+        <v>1.75589</v>
       </c>
       <c r="H22" s="1">
-        <v>920.371000</v>
+        <v>920.37099999999998</v>
       </c>
       <c r="I22" s="1">
-        <v>-165.209000</v>
+        <v>-165.209</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>6331.334617</v>
+        <v>6331.3346170000004</v>
       </c>
       <c r="L22" s="1">
         <v>1.758704</v>
       </c>
       <c r="M22" s="1">
-        <v>942.381000</v>
+        <v>942.38099999999997</v>
       </c>
       <c r="N22" s="1">
-        <v>-118.401000</v>
+        <v>-118.401</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>6341.879099</v>
+        <v>6341.8790989999998</v>
       </c>
       <c r="Q22" s="1">
         <v>1.761633</v>
       </c>
       <c r="R22" s="1">
-        <v>948.771000</v>
+        <v>948.77099999999996</v>
       </c>
       <c r="S22" s="1">
-        <v>-103.041000</v>
+        <v>-103.041</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>6352.014813</v>
+        <v>6352.0148129999998</v>
       </c>
       <c r="V22" s="1">
-        <v>1.764449</v>
+        <v>1.7644489999999999</v>
       </c>
       <c r="W22" s="1">
-        <v>955.030000</v>
+        <v>955.03</v>
       </c>
       <c r="X22" s="1">
-        <v>-89.372800</v>
+        <v>-89.372799999999998</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
         <v>6362.552815</v>
       </c>
       <c r="AA22" s="1">
-        <v>1.767376</v>
+        <v>1.7673760000000001</v>
       </c>
       <c r="AB22" s="1">
-        <v>962.155000</v>
+        <v>962.15499999999997</v>
       </c>
       <c r="AC22" s="1">
-        <v>-79.950600</v>
+        <v>-79.950599999999994</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>6373.065553</v>
+        <v>6373.0655530000004</v>
       </c>
       <c r="AF22" s="1">
-        <v>1.770296</v>
+        <v>1.7702960000000001</v>
       </c>
       <c r="AG22" s="1">
-        <v>967.056000</v>
+        <v>967.05600000000004</v>
       </c>
       <c r="AH22" s="1">
-        <v>-79.405700</v>
+        <v>-79.405699999999996</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>6383.571779</v>
+        <v>6383.5717789999999</v>
       </c>
       <c r="AK22" s="1">
-        <v>1.773214</v>
+        <v>1.7732140000000001</v>
       </c>
       <c r="AL22" s="1">
-        <v>974.920000</v>
+        <v>974.92</v>
       </c>
       <c r="AM22" s="1">
-        <v>-87.043500</v>
+        <v>-87.043499999999995</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
         <v>6394.095894</v>
@@ -5741,136 +6157,136 @@
         <v>1.776138</v>
       </c>
       <c r="AQ22" s="1">
-        <v>984.029000</v>
+        <v>984.029</v>
       </c>
       <c r="AR22" s="1">
-        <v>-101.787000</v>
+        <v>-101.78700000000001</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>6404.801047</v>
+        <v>6404.8010469999999</v>
       </c>
       <c r="AU22" s="1">
-        <v>1.779111</v>
+        <v>1.7791110000000001</v>
       </c>
       <c r="AV22" s="1">
-        <v>995.290000</v>
+        <v>995.29</v>
       </c>
       <c r="AW22" s="1">
-        <v>-123.104000</v>
+        <v>-123.104</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>6415.757206</v>
+        <v>6415.7572060000002</v>
       </c>
       <c r="AZ22" s="1">
-        <v>1.782155</v>
+        <v>1.7821549999999999</v>
       </c>
       <c r="BA22" s="1">
-        <v>1004.810000</v>
+        <v>1004.81</v>
       </c>
       <c r="BB22" s="1">
-        <v>-141.647000</v>
+        <v>-141.64699999999999</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>6426.803115</v>
+        <v>6426.8031149999997</v>
       </c>
       <c r="BE22" s="1">
         <v>1.785223</v>
       </c>
       <c r="BF22" s="1">
-        <v>1049.440000</v>
+        <v>1049.44</v>
       </c>
       <c r="BG22" s="1">
-        <v>-225.821000</v>
+        <v>-225.821</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>6437.795455</v>
+        <v>6437.7954550000004</v>
       </c>
       <c r="BJ22" s="1">
-        <v>1.788277</v>
+        <v>1.7882769999999999</v>
       </c>
       <c r="BK22" s="1">
-        <v>1127.850000</v>
+        <v>1127.8499999999999</v>
       </c>
       <c r="BL22" s="1">
-        <v>-361.335000</v>
+        <v>-361.33499999999998</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>6448.013038</v>
+        <v>6448.0130380000001</v>
       </c>
       <c r="BO22" s="1">
         <v>1.791115</v>
       </c>
       <c r="BP22" s="1">
-        <v>1258.100000</v>
+        <v>1258.0999999999999</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-571.207000</v>
+        <v>-571.20699999999999</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>6458.997409</v>
+        <v>6458.9974089999996</v>
       </c>
       <c r="BT22" s="1">
-        <v>1.794166</v>
+        <v>1.7941659999999999</v>
       </c>
       <c r="BU22" s="1">
-        <v>1405.270000</v>
+        <v>1405.27</v>
       </c>
       <c r="BV22" s="1">
-        <v>-795.238000</v>
+        <v>-795.23800000000006</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>6470.270977</v>
+        <v>6470.2709770000001</v>
       </c>
       <c r="BY22" s="1">
-        <v>1.797297</v>
+        <v>1.7972969999999999</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1566.490000</v>
+        <v>1566.49</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1029.210000</v>
+        <v>-1029.21</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>6483.196224</v>
+        <v>6483.1962240000003</v>
       </c>
       <c r="CD22" s="1">
         <v>1.800888</v>
       </c>
       <c r="CE22" s="1">
-        <v>1974.790000</v>
+        <v>1974.79</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1575.800000</v>
+        <v>-1575.8</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
         <v>6311.456451</v>
       </c>
@@ -5878,178 +6294,178 @@
         <v>1.753182</v>
       </c>
       <c r="C23" s="1">
-        <v>903.896000</v>
+        <v>903.89599999999996</v>
       </c>
       <c r="D23" s="1">
-        <v>-195.412000</v>
+        <v>-195.41200000000001</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>6321.546071</v>
+        <v>6321.5460709999998</v>
       </c>
       <c r="G23" s="1">
-        <v>1.755985</v>
+        <v>1.7559849999999999</v>
       </c>
       <c r="H23" s="1">
-        <v>920.744000</v>
+        <v>920.74400000000003</v>
       </c>
       <c r="I23" s="1">
-        <v>-165.950000</v>
+        <v>-165.95</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>6331.678840</v>
+        <v>6331.6788399999996</v>
       </c>
       <c r="L23" s="1">
-        <v>1.758800</v>
+        <v>1.7587999999999999</v>
       </c>
       <c r="M23" s="1">
-        <v>942.367000</v>
+        <v>942.36699999999996</v>
       </c>
       <c r="N23" s="1">
-        <v>-118.342000</v>
+        <v>-118.342</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>6342.227755</v>
+        <v>6342.2277549999999</v>
       </c>
       <c r="Q23" s="1">
-        <v>1.761730</v>
+        <v>1.76173</v>
       </c>
       <c r="R23" s="1">
-        <v>948.780000</v>
+        <v>948.78</v>
       </c>
       <c r="S23" s="1">
-        <v>-103.070000</v>
+        <v>-103.07</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>6352.425500</v>
+        <v>6352.4255000000003</v>
       </c>
       <c r="V23" s="1">
-        <v>1.764563</v>
+        <v>1.7645630000000001</v>
       </c>
       <c r="W23" s="1">
-        <v>955.044000</v>
+        <v>955.04399999999998</v>
       </c>
       <c r="X23" s="1">
-        <v>-89.343500</v>
+        <v>-89.343500000000006</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>6362.973460</v>
+        <v>6362.9734600000002</v>
       </c>
       <c r="AA23" s="1">
         <v>1.767493</v>
       </c>
       <c r="AB23" s="1">
-        <v>962.305000</v>
+        <v>962.30499999999995</v>
       </c>
       <c r="AC23" s="1">
-        <v>-79.796200</v>
+        <v>-79.796199999999999</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>6373.363651</v>
+        <v>6373.3636509999997</v>
       </c>
       <c r="AF23" s="1">
-        <v>1.770379</v>
+        <v>1.7703789999999999</v>
       </c>
       <c r="AG23" s="1">
-        <v>967.017000</v>
+        <v>967.01700000000005</v>
       </c>
       <c r="AH23" s="1">
-        <v>-79.397800</v>
+        <v>-79.397800000000004</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>6383.920965</v>
+        <v>6383.9209650000003</v>
       </c>
       <c r="AK23" s="1">
-        <v>1.773311</v>
+        <v>1.7733110000000001</v>
       </c>
       <c r="AL23" s="1">
-        <v>974.914000</v>
+        <v>974.91399999999999</v>
       </c>
       <c r="AM23" s="1">
-        <v>-87.020100</v>
+        <v>-87.020099999999999</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>6394.456017</v>
+        <v>6394.4560170000004</v>
       </c>
       <c r="AP23" s="1">
         <v>1.776238</v>
       </c>
       <c r="AQ23" s="1">
-        <v>984.049000</v>
+        <v>984.04899999999998</v>
       </c>
       <c r="AR23" s="1">
-        <v>-101.797000</v>
+        <v>-101.797</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
         <v>6405.176023</v>
       </c>
       <c r="AU23" s="1">
-        <v>1.779216</v>
+        <v>1.7792159999999999</v>
       </c>
       <c r="AV23" s="1">
-        <v>995.301000</v>
+        <v>995.30100000000004</v>
       </c>
       <c r="AW23" s="1">
-        <v>-123.107000</v>
+        <v>-123.107</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>6416.474920</v>
+        <v>6416.4749199999997</v>
       </c>
       <c r="AZ23" s="1">
         <v>1.782354</v>
       </c>
       <c r="BA23" s="1">
-        <v>1004.810000</v>
+        <v>1004.81</v>
       </c>
       <c r="BB23" s="1">
-        <v>-141.673000</v>
+        <v>-141.673</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>6427.524796</v>
+        <v>6427.5247959999997</v>
       </c>
       <c r="BE23" s="1">
-        <v>1.785424</v>
+        <v>1.7854239999999999</v>
       </c>
       <c r="BF23" s="1">
-        <v>1049.450000</v>
+        <v>1049.45</v>
       </c>
       <c r="BG23" s="1">
-        <v>-225.824000</v>
+        <v>-225.82400000000001</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
         <v>6438.170427</v>
@@ -6058,572 +6474,572 @@
         <v>1.788381</v>
       </c>
       <c r="BK23" s="1">
-        <v>1127.820000</v>
+        <v>1127.82</v>
       </c>
       <c r="BL23" s="1">
-        <v>-361.327000</v>
+        <v>-361.327</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>6448.414270</v>
+        <v>6448.4142700000002</v>
       </c>
       <c r="BO23" s="1">
         <v>1.791226</v>
       </c>
       <c r="BP23" s="1">
-        <v>1258.120000</v>
+        <v>1258.1199999999999</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-571.184000</v>
+        <v>-571.18399999999997</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>6459.426103</v>
+        <v>6459.4261029999998</v>
       </c>
       <c r="BT23" s="1">
-        <v>1.794285</v>
+        <v>1.7942849999999999</v>
       </c>
       <c r="BU23" s="1">
-        <v>1405.370000</v>
+        <v>1405.37</v>
       </c>
       <c r="BV23" s="1">
-        <v>-795.375000</v>
+        <v>-795.375</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>6471.014513</v>
+        <v>6471.0145130000001</v>
       </c>
       <c r="BY23" s="1">
         <v>1.797504</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1566.630000</v>
+        <v>1566.63</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1029.260000</v>
+        <v>-1029.26</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>6483.896079</v>
+        <v>6483.8960790000001</v>
       </c>
       <c r="CD23" s="1">
-        <v>1.801082</v>
+        <v>1.8010820000000001</v>
       </c>
       <c r="CE23" s="1">
-        <v>1973.970000</v>
+        <v>1973.97</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1573.570000</v>
+        <v>-1573.57</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>6311.796739</v>
+        <v>6311.7967390000003</v>
       </c>
       <c r="B24" s="1">
         <v>1.753277</v>
       </c>
       <c r="C24" s="1">
-        <v>903.968000</v>
+        <v>903.96799999999996</v>
       </c>
       <c r="D24" s="1">
-        <v>-195.488000</v>
+        <v>-195.488</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>6321.894261</v>
+        <v>6321.8942610000004</v>
       </c>
       <c r="G24" s="1">
-        <v>1.756082</v>
+        <v>1.7560819999999999</v>
       </c>
       <c r="H24" s="1">
-        <v>920.948000</v>
+        <v>920.94799999999998</v>
       </c>
       <c r="I24" s="1">
-        <v>-165.743000</v>
+        <v>-165.74299999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>6332.094489</v>
+        <v>6332.0944890000001</v>
       </c>
       <c r="L24" s="1">
         <v>1.758915</v>
       </c>
       <c r="M24" s="1">
-        <v>942.283000</v>
+        <v>942.28300000000002</v>
       </c>
       <c r="N24" s="1">
-        <v>-118.421000</v>
+        <v>-118.42100000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>6342.639466</v>
+        <v>6342.6394659999996</v>
       </c>
       <c r="Q24" s="1">
         <v>1.761844</v>
       </c>
       <c r="R24" s="1">
-        <v>948.763000</v>
+        <v>948.76300000000003</v>
       </c>
       <c r="S24" s="1">
-        <v>-103.086000</v>
+        <v>-103.086</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>6352.721645</v>
+        <v>6352.7216449999996</v>
       </c>
       <c r="V24" s="1">
         <v>1.764645</v>
       </c>
       <c r="W24" s="1">
-        <v>955.036000</v>
+        <v>955.03599999999994</v>
       </c>
       <c r="X24" s="1">
-        <v>-89.391200</v>
+        <v>-89.391199999999998</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>6363.251314</v>
+        <v>6363.2513140000001</v>
       </c>
       <c r="AA24" s="1">
-        <v>1.767570</v>
+        <v>1.7675700000000001</v>
       </c>
       <c r="AB24" s="1">
-        <v>962.129000</v>
+        <v>962.12900000000002</v>
       </c>
       <c r="AC24" s="1">
-        <v>-79.861200</v>
+        <v>-79.861199999999997</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>6373.706389</v>
+        <v>6373.7063889999999</v>
       </c>
       <c r="AF24" s="1">
-        <v>1.770474</v>
+        <v>1.7704740000000001</v>
       </c>
       <c r="AG24" s="1">
-        <v>967.053000</v>
+        <v>967.053</v>
       </c>
       <c r="AH24" s="1">
-        <v>-79.415500</v>
+        <v>-79.415499999999994</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>6384.271635</v>
+        <v>6384.2716350000001</v>
       </c>
       <c r="AK24" s="1">
         <v>1.773409</v>
       </c>
       <c r="AL24" s="1">
-        <v>974.898000</v>
+        <v>974.89800000000002</v>
       </c>
       <c r="AM24" s="1">
-        <v>-87.044100</v>
+        <v>-87.0441</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>6394.817110</v>
+        <v>6394.81711</v>
       </c>
       <c r="AP24" s="1">
         <v>1.776338</v>
       </c>
       <c r="AQ24" s="1">
-        <v>984.025000</v>
+        <v>984.02499999999998</v>
       </c>
       <c r="AR24" s="1">
-        <v>-101.796000</v>
+        <v>-101.79600000000001</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>6405.905638</v>
+        <v>6405.9056380000002</v>
       </c>
       <c r="AU24" s="1">
-        <v>1.779418</v>
+        <v>1.7794179999999999</v>
       </c>
       <c r="AV24" s="1">
-        <v>995.302000</v>
+        <v>995.30200000000002</v>
       </c>
       <c r="AW24" s="1">
-        <v>-123.110000</v>
+        <v>-123.11</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>6416.836007</v>
+        <v>6416.8360069999999</v>
       </c>
       <c r="AZ24" s="1">
         <v>1.782454</v>
       </c>
       <c r="BA24" s="1">
-        <v>1004.790000</v>
+        <v>1004.79</v>
       </c>
       <c r="BB24" s="1">
-        <v>-141.644000</v>
+        <v>-141.64400000000001</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>6427.887833</v>
+        <v>6427.8878329999998</v>
       </c>
       <c r="BE24" s="1">
-        <v>1.785524</v>
+        <v>1.7855240000000001</v>
       </c>
       <c r="BF24" s="1">
-        <v>1049.450000</v>
+        <v>1049.45</v>
       </c>
       <c r="BG24" s="1">
-        <v>-225.810000</v>
+        <v>-225.81</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>6438.547355</v>
+        <v>6438.5473549999997</v>
       </c>
       <c r="BJ24" s="1">
-        <v>1.788485</v>
+        <v>1.7884850000000001</v>
       </c>
       <c r="BK24" s="1">
-        <v>1127.830000</v>
+        <v>1127.83</v>
       </c>
       <c r="BL24" s="1">
-        <v>-361.316000</v>
+        <v>-361.31599999999997</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>6448.835405</v>
+        <v>6448.8354049999998</v>
       </c>
       <c r="BO24" s="1">
-        <v>1.791343</v>
+        <v>1.7913429999999999</v>
       </c>
       <c r="BP24" s="1">
-        <v>1258.080000</v>
+        <v>1258.08</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-571.231000</v>
+        <v>-571.23099999999999</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>6460.165982</v>
+        <v>6460.1659820000004</v>
       </c>
       <c r="BT24" s="1">
-        <v>1.794491</v>
+        <v>1.7944910000000001</v>
       </c>
       <c r="BU24" s="1">
-        <v>1405.330000</v>
+        <v>1405.33</v>
       </c>
       <c r="BV24" s="1">
-        <v>-795.572000</v>
+        <v>-795.572</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>6471.148411</v>
+        <v>6471.1484110000001</v>
       </c>
       <c r="BY24" s="1">
-        <v>1.797541</v>
+        <v>1.7975410000000001</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1566.640000</v>
+        <v>1566.64</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1029.080000</v>
+        <v>-1029.08</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
         <v>6484.254191</v>
       </c>
       <c r="CD24" s="1">
-        <v>1.801182</v>
+        <v>1.8011820000000001</v>
       </c>
       <c r="CE24" s="1">
-        <v>1974.180000</v>
+        <v>1974.18</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1573.460000</v>
+        <v>-1573.46</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>6312.141426</v>
+        <v>6312.1414260000001</v>
       </c>
       <c r="B25" s="1">
-        <v>1.753373</v>
+        <v>1.7533730000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>903.906000</v>
+        <v>903.90599999999995</v>
       </c>
       <c r="D25" s="1">
-        <v>-195.435000</v>
+        <v>-195.435</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>6322.312421</v>
+        <v>6322.3124209999996</v>
       </c>
       <c r="G25" s="1">
-        <v>1.756198</v>
+        <v>1.7561979999999999</v>
       </c>
       <c r="H25" s="1">
-        <v>920.614000</v>
+        <v>920.61400000000003</v>
       </c>
       <c r="I25" s="1">
-        <v>-165.641000</v>
+        <v>-165.64099999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>6332.374729</v>
+        <v>6332.3747290000001</v>
       </c>
       <c r="L25" s="1">
         <v>1.758993</v>
       </c>
       <c r="M25" s="1">
-        <v>942.342000</v>
+        <v>942.34199999999998</v>
       </c>
       <c r="N25" s="1">
-        <v>-118.419000</v>
+        <v>-118.419</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>6342.937530</v>
+        <v>6342.9375300000002</v>
       </c>
       <c r="Q25" s="1">
         <v>1.761927</v>
       </c>
       <c r="R25" s="1">
-        <v>948.749000</v>
+        <v>948.74900000000002</v>
       </c>
       <c r="S25" s="1">
-        <v>-103.071000</v>
+        <v>-103.071</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>6353.064349</v>
+        <v>6353.0643490000002</v>
       </c>
       <c r="V25" s="1">
-        <v>1.764740</v>
+        <v>1.76474</v>
       </c>
       <c r="W25" s="1">
-        <v>955.039000</v>
+        <v>955.03899999999999</v>
       </c>
       <c r="X25" s="1">
-        <v>-89.357000</v>
+        <v>-89.356999999999999</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>6363.608302</v>
+        <v>6363.6083019999996</v>
       </c>
       <c r="AA25" s="1">
-        <v>1.767669</v>
+        <v>1.7676689999999999</v>
       </c>
       <c r="AB25" s="1">
-        <v>962.211000</v>
+        <v>962.21100000000001</v>
       </c>
       <c r="AC25" s="1">
-        <v>-79.828700</v>
+        <v>-79.828699999999998</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>6374.051601</v>
+        <v>6374.0516010000001</v>
       </c>
       <c r="AF25" s="1">
-        <v>1.770570</v>
+        <v>1.77057</v>
       </c>
       <c r="AG25" s="1">
-        <v>967.036000</v>
+        <v>967.03599999999994</v>
       </c>
       <c r="AH25" s="1">
-        <v>-79.408300</v>
+        <v>-79.408299999999997</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>6384.965904</v>
+        <v>6384.9659039999997</v>
       </c>
       <c r="AK25" s="1">
-        <v>1.773602</v>
+        <v>1.7736019999999999</v>
       </c>
       <c r="AL25" s="1">
-        <v>974.918000</v>
+        <v>974.91800000000001</v>
       </c>
       <c r="AM25" s="1">
-        <v>-87.021700</v>
+        <v>-87.021699999999996</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>6395.546196</v>
+        <v>6395.5461960000002</v>
       </c>
       <c r="AP25" s="1">
-        <v>1.776541</v>
+        <v>1.7765409999999999</v>
       </c>
       <c r="AQ25" s="1">
-        <v>984.040000</v>
+        <v>984.04</v>
       </c>
       <c r="AR25" s="1">
-        <v>-101.797000</v>
+        <v>-101.797</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>6406.300485</v>
+        <v>6406.3004849999998</v>
       </c>
       <c r="AU25" s="1">
         <v>1.779528</v>
       </c>
       <c r="AV25" s="1">
-        <v>995.279000</v>
+        <v>995.279</v>
       </c>
       <c r="AW25" s="1">
-        <v>-123.102000</v>
+        <v>-123.102</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>6417.193097</v>
+        <v>6417.1930970000003</v>
       </c>
       <c r="AZ25" s="1">
         <v>1.782554</v>
       </c>
       <c r="BA25" s="1">
-        <v>1004.780000</v>
+        <v>1004.78</v>
       </c>
       <c r="BB25" s="1">
-        <v>-141.637000</v>
+        <v>-141.637</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>6428.250440</v>
+        <v>6428.2504399999998</v>
       </c>
       <c r="BE25" s="1">
         <v>1.785625</v>
       </c>
       <c r="BF25" s="1">
-        <v>1049.450000</v>
+        <v>1049.45</v>
       </c>
       <c r="BG25" s="1">
-        <v>-225.813000</v>
+        <v>-225.81299999999999</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>6439.221454</v>
+        <v>6439.2214540000004</v>
       </c>
       <c r="BJ25" s="1">
         <v>1.788673</v>
       </c>
       <c r="BK25" s="1">
-        <v>1127.820000</v>
+        <v>1127.82</v>
       </c>
       <c r="BL25" s="1">
-        <v>-361.344000</v>
+        <v>-361.34399999999999</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>6449.569453</v>
+        <v>6449.5694530000001</v>
       </c>
       <c r="BO25" s="1">
         <v>1.791547</v>
       </c>
       <c r="BP25" s="1">
-        <v>1258.130000</v>
+        <v>1258.1300000000001</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-571.209000</v>
+        <v>-571.20899999999995</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>6460.299406</v>
+        <v>6460.2994060000001</v>
       </c>
       <c r="BT25" s="1">
-        <v>1.794528</v>
+        <v>1.7945279999999999</v>
       </c>
       <c r="BU25" s="1">
-        <v>1405.160000</v>
+        <v>1405.16</v>
       </c>
       <c r="BV25" s="1">
-        <v>-795.630000</v>
+        <v>-795.63</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>6471.570993</v>
+        <v>6471.5709930000003</v>
       </c>
       <c r="BY25" s="1">
-        <v>1.797659</v>
+        <v>1.7976589999999999</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1566.310000</v>
+        <v>1566.31</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1029.160000</v>
+        <v>-1029.1600000000001</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
         <v>6484.773502</v>
@@ -6632,120 +7048,120 @@
         <v>1.801326</v>
       </c>
       <c r="CE25" s="1">
-        <v>1974.270000</v>
+        <v>1974.27</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1574.810000</v>
+        <v>-1574.81</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>6312.622354</v>
+        <v>6312.6223540000001</v>
       </c>
       <c r="B26" s="1">
         <v>1.753506</v>
       </c>
       <c r="C26" s="1">
-        <v>903.897000</v>
+        <v>903.89700000000005</v>
       </c>
       <c r="D26" s="1">
-        <v>-195.437000</v>
+        <v>-195.43700000000001</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>6322.580757</v>
+        <v>6322.5807569999997</v>
       </c>
       <c r="G26" s="1">
-        <v>1.756272</v>
+        <v>1.7562720000000001</v>
       </c>
       <c r="H26" s="1">
-        <v>920.499000</v>
+        <v>920.49900000000002</v>
       </c>
       <c r="I26" s="1">
-        <v>-165.711000</v>
+        <v>-165.71100000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>6332.719945</v>
+        <v>6332.7199449999998</v>
       </c>
       <c r="L26" s="1">
-        <v>1.759089</v>
+        <v>1.7590889999999999</v>
       </c>
       <c r="M26" s="1">
-        <v>942.377000</v>
+        <v>942.37699999999995</v>
       </c>
       <c r="N26" s="1">
-        <v>-118.403000</v>
+        <v>-118.40300000000001</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>6343.285225</v>
+        <v>6343.2852249999996</v>
       </c>
       <c r="Q26" s="1">
         <v>1.762024</v>
       </c>
       <c r="R26" s="1">
-        <v>948.725000</v>
+        <v>948.72500000000002</v>
       </c>
       <c r="S26" s="1">
-        <v>-103.046000</v>
+        <v>-103.04600000000001</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>6353.409068</v>
+        <v>6353.4090679999999</v>
       </c>
       <c r="V26" s="1">
-        <v>1.764836</v>
+        <v>1.7648360000000001</v>
       </c>
       <c r="W26" s="1">
-        <v>955.049000</v>
+        <v>955.04899999999998</v>
       </c>
       <c r="X26" s="1">
-        <v>-89.364000</v>
+        <v>-89.364000000000004</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>6364.301213</v>
+        <v>6364.3012129999997</v>
       </c>
       <c r="AA26" s="1">
-        <v>1.767861</v>
+        <v>1.7678609999999999</v>
       </c>
       <c r="AB26" s="1">
-        <v>962.184000</v>
+        <v>962.18399999999997</v>
       </c>
       <c r="AC26" s="1">
-        <v>-79.862500</v>
+        <v>-79.862499999999997</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>6374.737536</v>
+        <v>6374.7375359999996</v>
       </c>
       <c r="AF26" s="1">
-        <v>1.770760</v>
+        <v>1.7707599999999999</v>
       </c>
       <c r="AG26" s="1">
-        <v>967.055000</v>
+        <v>967.05499999999995</v>
       </c>
       <c r="AH26" s="1">
-        <v>-79.399800</v>
+        <v>-79.399799999999999</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
         <v>6385.314257</v>
@@ -6754,150 +7170,151 @@
         <v>1.773698</v>
       </c>
       <c r="AL26" s="1">
-        <v>974.926000</v>
+        <v>974.92600000000004</v>
       </c>
       <c r="AM26" s="1">
-        <v>-87.010700</v>
+        <v>-87.0107</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>6395.923651</v>
+        <v>6395.9236510000001</v>
       </c>
       <c r="AP26" s="1">
         <v>1.776645</v>
       </c>
       <c r="AQ26" s="1">
-        <v>984.043000</v>
+        <v>984.04300000000001</v>
       </c>
       <c r="AR26" s="1">
-        <v>-101.787000</v>
+        <v>-101.78700000000001</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>6406.662534</v>
+        <v>6406.6625340000001</v>
       </c>
       <c r="AU26" s="1">
         <v>1.779628</v>
       </c>
       <c r="AV26" s="1">
-        <v>995.286000</v>
+        <v>995.28599999999994</v>
       </c>
       <c r="AW26" s="1">
-        <v>-123.096000</v>
+        <v>-123.096</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>6417.856247</v>
+        <v>6417.8562469999997</v>
       </c>
       <c r="AZ26" s="1">
-        <v>1.782738</v>
+        <v>1.7827379999999999</v>
       </c>
       <c r="BA26" s="1">
-        <v>1004.800000</v>
+        <v>1004.8</v>
       </c>
       <c r="BB26" s="1">
-        <v>-141.668000</v>
+        <v>-141.66800000000001</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>6428.912569</v>
+        <v>6428.9125690000001</v>
       </c>
       <c r="BE26" s="1">
         <v>1.785809</v>
       </c>
       <c r="BF26" s="1">
-        <v>1049.460000</v>
+        <v>1049.46</v>
       </c>
       <c r="BG26" s="1">
-        <v>-225.816000</v>
+        <v>-225.816</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>6439.330074</v>
+        <v>6439.3300740000004</v>
       </c>
       <c r="BJ26" s="1">
-        <v>1.788703</v>
+        <v>1.7887029999999999</v>
       </c>
       <c r="BK26" s="1">
-        <v>1127.820000</v>
+        <v>1127.82</v>
       </c>
       <c r="BL26" s="1">
-        <v>-361.332000</v>
+        <v>-361.33199999999999</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>6450.075868</v>
+        <v>6450.0758679999999</v>
       </c>
       <c r="BO26" s="1">
-        <v>1.791688</v>
+        <v>1.7916879999999999</v>
       </c>
       <c r="BP26" s="1">
-        <v>1258.120000</v>
+        <v>1258.1199999999999</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-571.238000</v>
+        <v>-571.23800000000006</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>6460.711085</v>
+        <v>6460.7110849999999</v>
       </c>
       <c r="BT26" s="1">
-        <v>1.794642</v>
+        <v>1.7946420000000001</v>
       </c>
       <c r="BU26" s="1">
-        <v>1405.070000</v>
+        <v>1405.07</v>
       </c>
       <c r="BV26" s="1">
-        <v>-795.795000</v>
+        <v>-795.79499999999996</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>6471.992592</v>
+        <v>6471.9925919999996</v>
       </c>
       <c r="BY26" s="1">
         <v>1.797776</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1566.490000</v>
+        <v>1566.49</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1029.140000</v>
+        <v>-1029.1400000000001</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>6485.288387</v>
+        <v>6485.2883869999996</v>
       </c>
       <c r="CD26" s="1">
         <v>1.801469</v>
       </c>
       <c r="CE26" s="1">
-        <v>1974.240000</v>
+        <v>1974.24</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1574.320000</v>
+        <v>-1574.32</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>